--- a/odesk/raw_annotation/odesk_r3_s100_b02_katie.xlsx
+++ b/odesk/raw_annotation/odesk_r3_s100_b02_katie.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="38240" windowHeight="18960" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="batch_0" sheetId="1" r:id="rId1"/>
     <sheet name="batch_1" sheetId="2" r:id="rId2"/>
     <sheet name="batch_2" sheetId="3" r:id="rId3"/>
-    <sheet name="batch_3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="101716" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4160" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3446" uniqueCount="581">
   <si>
     <t>UNIT_00000</t>
   </si>
@@ -3305,690 +3304,6 @@
   </si>
   <si>
     <t>back</t>
-  </si>
-  <si>
-    <t>UNIT_00077</t>
-  </si>
-  <si>
-    <t>SENT_00319</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It also </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>reported</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> a 2.6 % decline in its raw - materials price index for September .</t>
-    </r>
-  </si>
-  <si>
-    <t>reported</t>
-  </si>
-  <si>
-    <t>2.6 % decline in its raw - materials price index</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>UNIT_00078</t>
-  </si>
-  <si>
-    <t>SENT_01718</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The 1988 tax act </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>created</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> a federal bill of rights spelling out IRS duties to protect taxpayers ' rights in the assessment and collection of taxes .</t>
-    </r>
-  </si>
-  <si>
-    <t>The 1988 tax act</t>
-  </si>
-  <si>
-    <t>a federal bill of rights spelling out IRS duties to protect taxpayers ' rights in the assessment and collection of taxes</t>
-  </si>
-  <si>
-    <t>a federal bill of rights</t>
-  </si>
-  <si>
-    <t>to protect taxpayers ' rights in the assessment and collection of taxes</t>
-  </si>
-  <si>
-    <t>UNIT_00079</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The 1988 tax act created a federal bill of rights </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>spelling</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> out IRS duties to protect taxpayers ' rights in the assessment and collection of taxes .</t>
-    </r>
-  </si>
-  <si>
-    <t>spelling</t>
-  </si>
-  <si>
-    <t>being spelled</t>
-  </si>
-  <si>
-    <t>IRS duties to protect taxpayers ' rights in the assessment and collection of taxes</t>
-  </si>
-  <si>
-    <t>What was being spelled out?</t>
-  </si>
-  <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>What was spelling out something?</t>
-  </si>
-  <si>
-    <t>Why was something being spelled out?</t>
-  </si>
-  <si>
-    <t>UNIT_00080</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The 1988 tax act created a federal bill of rights spelling out IRS duties to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>protect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> taxpayers ' rights in the assessment and collection of taxes .</t>
-    </r>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>UNIT_00081</t>
-  </si>
-  <si>
-    <t>SENT_01530</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">So far , Nissan 's new - model successes are mostly </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>specialized</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> vehicles with limited sales potential .</t>
-    </r>
-  </si>
-  <si>
-    <t>specialized</t>
-  </si>
-  <si>
-    <t>mostly</t>
-  </si>
-  <si>
-    <t>vehicles</t>
-  </si>
-  <si>
-    <t>UNIT_00082</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">So far , Nissan 's new - model successes are mostly specialized vehicles with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>limited</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> sales potential .</t>
-    </r>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>UNIT_00083</t>
-  </si>
-  <si>
-    <t>SENT_00136</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The researchers also </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>pulled</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> off a second genetic engineering trick in order to get male - sterile plants in large enough numbers to produce a commercial hybrid seed crop .</t>
-    </r>
-  </si>
-  <si>
-    <t>pulled</t>
-  </si>
-  <si>
-    <t>UNIT_00084</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The researchers also pulled off a second genetic engineering trick in order to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>get</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> male - sterile plants in large enough numbers to produce a commercial hybrid seed crop .</t>
-    </r>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>UNIT_00085</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The researchers also pulled off a second genetic engineering trick in order to get male - sterile plants in large enough numbers to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>produce</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> a commercial hybrid seed crop .</t>
-    </r>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>UNIT_00086</t>
-  </si>
-  <si>
-    <t>SENT_01418</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mrs. Marcos 's trial is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>expected</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> to begin in March .</t>
-    </r>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>Mrs. Marcos 's trial</t>
-  </si>
-  <si>
-    <t>in March</t>
-  </si>
-  <si>
-    <t>UNIT_00087</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mrs. Marcos 's trial is expected to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>begin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> in March .</t>
-    </r>
-  </si>
-  <si>
-    <t>UNIT_00088</t>
-  </si>
-  <si>
-    <t>SENT_03296</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">But demands on the company 's creativity are certain to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>grow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>grow</t>
-  </si>
-  <si>
-    <t>demands on the company 's creativity</t>
-  </si>
-  <si>
-    <t>UNIT_00089</t>
-  </si>
-  <si>
-    <t>SENT_00802</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">`` In the price range it 's a tremendously high - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>performing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> product , '' said Sandy Gant , an analyst at the market - research firm InfoCorp .</t>
-    </r>
-  </si>
-  <si>
-    <t>performing</t>
-  </si>
-  <si>
-    <t>UNIT_00090</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">`` In the price range it 's a tremendously high - performing product , '' </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>said</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Sandy Gant , an analyst at the market - research firm InfoCorp .</t>
-    </r>
-  </si>
-  <si>
-    <t>UNIT_00091</t>
-  </si>
-  <si>
-    <t>SENT_01791</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">And with Al 's record of being a delver and a detail guy , you can </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>see</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> how the two fit , '' said Alan Gottesman , an analyst with PaineWebber .</t>
-    </r>
-  </si>
-  <si>
-    <t>UNIT_00092</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">And with Al 's record of being a delver and a detail guy , you can see how the two </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>fit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> , '' said Alan Gottesman , an analyst with PaineWebber .</t>
-    </r>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>UNIT_00093</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">And with Al 's record of being a delver and a detail guy , you can see how the two fit , '' </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>said</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Alan Gottesman , an analyst with PaineWebber .</t>
-    </r>
-  </si>
-  <si>
-    <t>UNIT_00094</t>
-  </si>
-  <si>
-    <t>SENT_02955</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Leading indicators </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>rose</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> a slight 0.2 % in September , a further indication the economy is slowing but without any clear sign of whether a recession looms .</t>
-    </r>
-  </si>
-  <si>
-    <t>rose</t>
-  </si>
-  <si>
-    <t>UNIT_00095</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Leading indicators rose a slight 0.2 % in September , a further indication the economy is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>slowing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> but without any clear sign of whether a recession looms .</t>
-    </r>
-  </si>
-  <si>
-    <t>slowing</t>
-  </si>
-  <si>
-    <t>UNIT_00096</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Leading indicators rose a slight 0.2 % in September , a further indication the economy is slowing but without any clear sign of whether a recession </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>looms</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>TRG_00026</t>
-  </si>
-  <si>
-    <t>looms</t>
-  </si>
-  <si>
-    <t>UNIT_00097</t>
-  </si>
-  <si>
-    <t>SENT_04985</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Employers Casualty </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>had</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> a loss of $ 3.6 million in the year - earlier quarter .</t>
-    </r>
-  </si>
-  <si>
-    <t>Employers Casualty</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> a loss of $ 3.6 million</t>
-  </si>
-  <si>
-    <t>in the year - earlier quarter</t>
   </si>
 </sst>
 </file>
@@ -4531,7 +3846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY363"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A143" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="J243" sqref="J243"/>
     </sheetView>
   </sheetViews>
@@ -13096,12 +12411,16 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="28">
-    <mergeCell ref="B67:AY67"/>
-    <mergeCell ref="B2:AY2"/>
-    <mergeCell ref="B15:AY15"/>
-    <mergeCell ref="B28:AY28"/>
-    <mergeCell ref="B41:AY41"/>
-    <mergeCell ref="B54:AY54"/>
+    <mergeCell ref="B314:AY314"/>
+    <mergeCell ref="B327:AY327"/>
+    <mergeCell ref="B340:AY340"/>
+    <mergeCell ref="B353:AY353"/>
+    <mergeCell ref="B236:AY236"/>
+    <mergeCell ref="B249:AY249"/>
+    <mergeCell ref="B262:AY262"/>
+    <mergeCell ref="B275:AY275"/>
+    <mergeCell ref="B288:AY288"/>
+    <mergeCell ref="B301:AY301"/>
     <mergeCell ref="B223:AY223"/>
     <mergeCell ref="B80:AY80"/>
     <mergeCell ref="B93:AY93"/>
@@ -13114,16 +12433,12 @@
     <mergeCell ref="B184:AY184"/>
     <mergeCell ref="B197:AY197"/>
     <mergeCell ref="B210:AY210"/>
-    <mergeCell ref="B314:AY314"/>
-    <mergeCell ref="B327:AY327"/>
-    <mergeCell ref="B340:AY340"/>
-    <mergeCell ref="B353:AY353"/>
-    <mergeCell ref="B236:AY236"/>
-    <mergeCell ref="B249:AY249"/>
-    <mergeCell ref="B262:AY262"/>
-    <mergeCell ref="B275:AY275"/>
-    <mergeCell ref="B288:AY288"/>
-    <mergeCell ref="B301:AY301"/>
+    <mergeCell ref="B67:AY67"/>
+    <mergeCell ref="B2:AY2"/>
+    <mergeCell ref="B15:AY15"/>
+    <mergeCell ref="B28:AY28"/>
+    <mergeCell ref="B41:AY41"/>
+    <mergeCell ref="B54:AY54"/>
   </mergeCells>
   <dataValidations count="77">
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="J5 J18 J31 J44 J57 J70 J83 J96 J109 J122 J135 J148 J161 J174 J187 J200 J213 J239 J252 J265 J278 J291 J304 J317 J330 J343 J356">
@@ -13449,7 +12764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY311"/>
   <sheetViews>
-    <sheetView topLeftCell="A225" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="K206" sqref="K206"/>
     </sheetView>
   </sheetViews>
@@ -20710,6 +20025,18 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="24">
+    <mergeCell ref="B301:AY301"/>
+    <mergeCell ref="B158:AY158"/>
+    <mergeCell ref="B171:AY171"/>
+    <mergeCell ref="B184:AY184"/>
+    <mergeCell ref="B197:AY197"/>
+    <mergeCell ref="B210:AY210"/>
+    <mergeCell ref="B223:AY223"/>
+    <mergeCell ref="B236:AY236"/>
+    <mergeCell ref="B249:AY249"/>
+    <mergeCell ref="B262:AY262"/>
+    <mergeCell ref="B275:AY275"/>
+    <mergeCell ref="B288:AY288"/>
     <mergeCell ref="B145:AY145"/>
     <mergeCell ref="B2:AY2"/>
     <mergeCell ref="B15:AY15"/>
@@ -20722,18 +20049,6 @@
     <mergeCell ref="B106:AY106"/>
     <mergeCell ref="B119:AY119"/>
     <mergeCell ref="B132:AY132"/>
-    <mergeCell ref="B301:AY301"/>
-    <mergeCell ref="B158:AY158"/>
-    <mergeCell ref="B171:AY171"/>
-    <mergeCell ref="B184:AY184"/>
-    <mergeCell ref="B197:AY197"/>
-    <mergeCell ref="B210:AY210"/>
-    <mergeCell ref="B223:AY223"/>
-    <mergeCell ref="B236:AY236"/>
-    <mergeCell ref="B249:AY249"/>
-    <mergeCell ref="B262:AY262"/>
-    <mergeCell ref="B275:AY275"/>
-    <mergeCell ref="B288:AY288"/>
   </mergeCells>
   <dataValidations count="77">
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="J5 J18 J31 J44 J57 J70 J83 J96 J109 J122 J135 J148 J161 J174 J187 J200 J213 J226 J239 J252 J265 J278 J291 J304">
@@ -28553,12 +27868,13 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="25">
-    <mergeCell ref="B67:AY67"/>
-    <mergeCell ref="B2:AY2"/>
-    <mergeCell ref="B15:AY15"/>
-    <mergeCell ref="B28:AY28"/>
-    <mergeCell ref="B41:AY41"/>
-    <mergeCell ref="B54:AY54"/>
+    <mergeCell ref="B314:AY314"/>
+    <mergeCell ref="B236:AY236"/>
+    <mergeCell ref="B249:AY249"/>
+    <mergeCell ref="B262:AY262"/>
+    <mergeCell ref="B275:AY275"/>
+    <mergeCell ref="B288:AY288"/>
+    <mergeCell ref="B301:AY301"/>
     <mergeCell ref="B223:AY223"/>
     <mergeCell ref="B80:AY80"/>
     <mergeCell ref="B93:AY93"/>
@@ -28571,13 +27887,12 @@
     <mergeCell ref="B184:AY184"/>
     <mergeCell ref="B197:AY197"/>
     <mergeCell ref="B210:AY210"/>
-    <mergeCell ref="B314:AY314"/>
-    <mergeCell ref="B236:AY236"/>
-    <mergeCell ref="B249:AY249"/>
-    <mergeCell ref="B262:AY262"/>
-    <mergeCell ref="B275:AY275"/>
-    <mergeCell ref="B288:AY288"/>
-    <mergeCell ref="B301:AY301"/>
+    <mergeCell ref="B67:AY67"/>
+    <mergeCell ref="B2:AY2"/>
+    <mergeCell ref="B15:AY15"/>
+    <mergeCell ref="B28:AY28"/>
+    <mergeCell ref="B41:AY41"/>
+    <mergeCell ref="B54:AY54"/>
   </mergeCells>
   <dataValidations count="76">
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="J5 J18 J31 J44 J57 J70 J83 J96 J109:J110 J122 J135 J148 J161 J174 J187 J200 J213 J226 J239 J252 J265 J278 J291 J304 J317">
@@ -28893,6244 +28208,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY272"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J267" sqref="J267"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:51" ht="14">
-      <c r="A1" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" ht="14">
-      <c r="A2" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-    </row>
-    <row r="3" spans="1:51" ht="14">
-      <c r="A3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="4" spans="1:51" ht="14">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:51" ht="14">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:51" ht="14">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:51" ht="14">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:51" ht="14">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:51" ht="14">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:51" ht="14">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:51" ht="14">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:51" ht="14">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="14" spans="1:51" ht="14">
-      <c r="A14" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="15" spans="1:51" ht="14">
-      <c r="A15" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="8"/>
-      <c r="AM15" s="8"/>
-      <c r="AN15" s="8"/>
-      <c r="AO15" s="8"/>
-      <c r="AP15" s="8"/>
-      <c r="AQ15" s="8"/>
-      <c r="AR15" s="8"/>
-      <c r="AS15" s="8"/>
-      <c r="AT15" s="8"/>
-      <c r="AU15" s="8"/>
-      <c r="AV15" s="8"/>
-      <c r="AW15" s="8"/>
-      <c r="AX15" s="8"/>
-      <c r="AY15" s="8"/>
-    </row>
-    <row r="16" spans="1:51" ht="14">
-      <c r="A16" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:51" ht="14">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:51" ht="14">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="1:51" ht="14">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="1:51" ht="14">
-      <c r="A20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="1:51" ht="14">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="6"/>
-    </row>
-    <row r="22" spans="1:51" ht="14">
-      <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="6"/>
-    </row>
-    <row r="23" spans="1:51" ht="14">
-      <c r="A23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="6"/>
-    </row>
-    <row r="24" spans="1:51" ht="14">
-      <c r="A24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="6"/>
-    </row>
-    <row r="25" spans="1:51" ht="14">
-      <c r="A25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="6"/>
-    </row>
-    <row r="27" spans="1:51" ht="14">
-      <c r="A27" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="28" spans="1:51" ht="14">
-      <c r="A28" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="8"/>
-      <c r="AD28" s="8"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="8"/>
-      <c r="AG28" s="8"/>
-      <c r="AH28" s="8"/>
-      <c r="AI28" s="8"/>
-      <c r="AJ28" s="8"/>
-      <c r="AK28" s="8"/>
-      <c r="AL28" s="8"/>
-      <c r="AM28" s="8"/>
-      <c r="AN28" s="8"/>
-      <c r="AO28" s="8"/>
-      <c r="AP28" s="8"/>
-      <c r="AQ28" s="8"/>
-      <c r="AR28" s="8"/>
-      <c r="AS28" s="8"/>
-      <c r="AT28" s="8"/>
-      <c r="AU28" s="8"/>
-      <c r="AV28" s="8"/>
-      <c r="AW28" s="8"/>
-      <c r="AX28" s="8"/>
-      <c r="AY28" s="8"/>
-    </row>
-    <row r="29" spans="1:51" ht="14">
-      <c r="A29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="30" spans="1:51" ht="14">
-      <c r="A30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:51" ht="14">
-      <c r="A31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="6" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="32" spans="1:51" ht="14">
-      <c r="A32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="6"/>
-    </row>
-    <row r="33" spans="1:51" ht="14">
-      <c r="A33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="6" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="34" spans="1:51" ht="14">
-      <c r="A34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="6" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="35" spans="1:51" ht="14">
-      <c r="A35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="6"/>
-    </row>
-    <row r="36" spans="1:51" ht="14">
-      <c r="A36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="6"/>
-    </row>
-    <row r="37" spans="1:51" ht="14">
-      <c r="A37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="6"/>
-    </row>
-    <row r="38" spans="1:51" ht="14">
-      <c r="A38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="6"/>
-    </row>
-    <row r="40" spans="1:51" ht="14">
-      <c r="A40" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="41" spans="1:51" ht="14">
-      <c r="A41" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="8"/>
-      <c r="AD41" s="8"/>
-      <c r="AE41" s="8"/>
-      <c r="AF41" s="8"/>
-      <c r="AG41" s="8"/>
-      <c r="AH41" s="8"/>
-      <c r="AI41" s="8"/>
-      <c r="AJ41" s="8"/>
-      <c r="AK41" s="8"/>
-      <c r="AL41" s="8"/>
-      <c r="AM41" s="8"/>
-      <c r="AN41" s="8"/>
-      <c r="AO41" s="8"/>
-      <c r="AP41" s="8"/>
-      <c r="AQ41" s="8"/>
-      <c r="AR41" s="8"/>
-      <c r="AS41" s="8"/>
-      <c r="AT41" s="8"/>
-      <c r="AU41" s="8"/>
-      <c r="AV41" s="8"/>
-      <c r="AW41" s="8"/>
-      <c r="AX41" s="8"/>
-      <c r="AY41" s="8"/>
-    </row>
-    <row r="42" spans="1:51" ht="14">
-      <c r="A42" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="43" spans="1:51" ht="14">
-      <c r="A43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:51" ht="14">
-      <c r="A44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="6"/>
-    </row>
-    <row r="45" spans="1:51" ht="14">
-      <c r="A45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="6"/>
-    </row>
-    <row r="46" spans="1:51" ht="14">
-      <c r="A46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="6"/>
-    </row>
-    <row r="47" spans="1:51" ht="14">
-      <c r="A47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="6"/>
-    </row>
-    <row r="48" spans="1:51" ht="14">
-      <c r="A48" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="6"/>
-    </row>
-    <row r="49" spans="1:51" ht="14">
-      <c r="A49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="6"/>
-    </row>
-    <row r="50" spans="1:51" ht="14">
-      <c r="A50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="6"/>
-    </row>
-    <row r="51" spans="1:51" ht="14">
-      <c r="A51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="6"/>
-    </row>
-    <row r="53" spans="1:51" ht="14">
-      <c r="A53" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="54" spans="1:51" ht="14">
-      <c r="A54" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="8"/>
-      <c r="X54" s="8"/>
-      <c r="Y54" s="8"/>
-      <c r="Z54" s="8"/>
-      <c r="AA54" s="8"/>
-      <c r="AB54" s="8"/>
-      <c r="AC54" s="8"/>
-      <c r="AD54" s="8"/>
-      <c r="AE54" s="8"/>
-      <c r="AF54" s="8"/>
-      <c r="AG54" s="8"/>
-      <c r="AH54" s="8"/>
-      <c r="AI54" s="8"/>
-      <c r="AJ54" s="8"/>
-      <c r="AK54" s="8"/>
-      <c r="AL54" s="8"/>
-      <c r="AM54" s="8"/>
-      <c r="AN54" s="8"/>
-      <c r="AO54" s="8"/>
-      <c r="AP54" s="8"/>
-      <c r="AQ54" s="8"/>
-      <c r="AR54" s="8"/>
-      <c r="AS54" s="8"/>
-      <c r="AT54" s="8"/>
-      <c r="AU54" s="8"/>
-      <c r="AV54" s="8"/>
-      <c r="AW54" s="8"/>
-      <c r="AX54" s="8"/>
-      <c r="AY54" s="8"/>
-    </row>
-    <row r="55" spans="1:51" ht="14">
-      <c r="A55" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="56" spans="1:51" ht="14">
-      <c r="A56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:51" ht="14">
-      <c r="A57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="6"/>
-    </row>
-    <row r="58" spans="1:51" ht="14">
-      <c r="A58" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="6"/>
-    </row>
-    <row r="59" spans="1:51" ht="14">
-      <c r="A59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="6"/>
-    </row>
-    <row r="60" spans="1:51" ht="14">
-      <c r="A60" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="6"/>
-    </row>
-    <row r="61" spans="1:51" ht="14">
-      <c r="A61" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="6"/>
-    </row>
-    <row r="62" spans="1:51" ht="14">
-      <c r="A62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="6"/>
-    </row>
-    <row r="63" spans="1:51" ht="14">
-      <c r="A63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="6"/>
-    </row>
-    <row r="64" spans="1:51" ht="14">
-      <c r="A64" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="6"/>
-    </row>
-    <row r="66" spans="1:51" ht="14">
-      <c r="A66" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="67" spans="1:51" ht="14">
-      <c r="A67" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="8"/>
-      <c r="W67" s="8"/>
-      <c r="X67" s="8"/>
-      <c r="Y67" s="8"/>
-      <c r="Z67" s="8"/>
-      <c r="AA67" s="8"/>
-      <c r="AB67" s="8"/>
-      <c r="AC67" s="8"/>
-      <c r="AD67" s="8"/>
-      <c r="AE67" s="8"/>
-      <c r="AF67" s="8"/>
-      <c r="AG67" s="8"/>
-      <c r="AH67" s="8"/>
-      <c r="AI67" s="8"/>
-      <c r="AJ67" s="8"/>
-      <c r="AK67" s="8"/>
-      <c r="AL67" s="8"/>
-      <c r="AM67" s="8"/>
-      <c r="AN67" s="8"/>
-      <c r="AO67" s="8"/>
-      <c r="AP67" s="8"/>
-      <c r="AQ67" s="8"/>
-      <c r="AR67" s="8"/>
-      <c r="AS67" s="8"/>
-      <c r="AT67" s="8"/>
-      <c r="AU67" s="8"/>
-      <c r="AV67" s="8"/>
-      <c r="AW67" s="8"/>
-      <c r="AX67" s="8"/>
-      <c r="AY67" s="8"/>
-    </row>
-    <row r="68" spans="1:51" ht="14">
-      <c r="A68" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="69" spans="1:51" ht="14">
-      <c r="A69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:51" ht="14">
-      <c r="A70" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="6"/>
-    </row>
-    <row r="71" spans="1:51" ht="14">
-      <c r="A71" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="6"/>
-    </row>
-    <row r="72" spans="1:51" ht="14">
-      <c r="A72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="6"/>
-    </row>
-    <row r="73" spans="1:51" ht="14">
-      <c r="A73" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="6"/>
-    </row>
-    <row r="74" spans="1:51" ht="14">
-      <c r="A74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="6"/>
-    </row>
-    <row r="75" spans="1:51" ht="14">
-      <c r="A75" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="6"/>
-    </row>
-    <row r="76" spans="1:51" ht="14">
-      <c r="A76" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="6"/>
-    </row>
-    <row r="77" spans="1:51" ht="14">
-      <c r="A77" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="6"/>
-    </row>
-    <row r="79" spans="1:51" ht="14">
-      <c r="A79" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="80" spans="1:51" ht="14">
-      <c r="A80" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="8"/>
-      <c r="R80" s="8"/>
-      <c r="S80" s="8"/>
-      <c r="T80" s="8"/>
-      <c r="U80" s="8"/>
-      <c r="V80" s="8"/>
-      <c r="W80" s="8"/>
-      <c r="X80" s="8"/>
-      <c r="Y80" s="8"/>
-      <c r="Z80" s="8"/>
-      <c r="AA80" s="8"/>
-      <c r="AB80" s="8"/>
-      <c r="AC80" s="8"/>
-      <c r="AD80" s="8"/>
-      <c r="AE80" s="8"/>
-      <c r="AF80" s="8"/>
-      <c r="AG80" s="8"/>
-      <c r="AH80" s="8"/>
-      <c r="AI80" s="8"/>
-      <c r="AJ80" s="8"/>
-      <c r="AK80" s="8"/>
-      <c r="AL80" s="8"/>
-      <c r="AM80" s="8"/>
-      <c r="AN80" s="8"/>
-      <c r="AO80" s="8"/>
-      <c r="AP80" s="8"/>
-      <c r="AQ80" s="8"/>
-      <c r="AR80" s="8"/>
-      <c r="AS80" s="8"/>
-      <c r="AT80" s="8"/>
-      <c r="AU80" s="8"/>
-      <c r="AV80" s="8"/>
-      <c r="AW80" s="8"/>
-      <c r="AX80" s="8"/>
-      <c r="AY80" s="8"/>
-    </row>
-    <row r="81" spans="1:51" ht="14">
-      <c r="A81" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="82" spans="1:51" ht="14">
-      <c r="A82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:51" ht="14">
-      <c r="A83" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="6"/>
-    </row>
-    <row r="84" spans="1:51" ht="14">
-      <c r="A84" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="6"/>
-    </row>
-    <row r="85" spans="1:51" ht="14">
-      <c r="A85" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="6"/>
-    </row>
-    <row r="86" spans="1:51" ht="14">
-      <c r="A86" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="6"/>
-    </row>
-    <row r="87" spans="1:51" ht="14">
-      <c r="A87" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="6"/>
-    </row>
-    <row r="88" spans="1:51" ht="14">
-      <c r="A88" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="6"/>
-    </row>
-    <row r="89" spans="1:51" ht="14">
-      <c r="A89" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="6"/>
-    </row>
-    <row r="90" spans="1:51" ht="14">
-      <c r="A90" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="6"/>
-    </row>
-    <row r="92" spans="1:51" ht="14">
-      <c r="A92" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="93" spans="1:51" ht="14">
-      <c r="A93" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
-      <c r="O93" s="8"/>
-      <c r="P93" s="8"/>
-      <c r="Q93" s="8"/>
-      <c r="R93" s="8"/>
-      <c r="S93" s="8"/>
-      <c r="T93" s="8"/>
-      <c r="U93" s="8"/>
-      <c r="V93" s="8"/>
-      <c r="W93" s="8"/>
-      <c r="X93" s="8"/>
-      <c r="Y93" s="8"/>
-      <c r="Z93" s="8"/>
-      <c r="AA93" s="8"/>
-      <c r="AB93" s="8"/>
-      <c r="AC93" s="8"/>
-      <c r="AD93" s="8"/>
-      <c r="AE93" s="8"/>
-      <c r="AF93" s="8"/>
-      <c r="AG93" s="8"/>
-      <c r="AH93" s="8"/>
-      <c r="AI93" s="8"/>
-      <c r="AJ93" s="8"/>
-      <c r="AK93" s="8"/>
-      <c r="AL93" s="8"/>
-      <c r="AM93" s="8"/>
-      <c r="AN93" s="8"/>
-      <c r="AO93" s="8"/>
-      <c r="AP93" s="8"/>
-      <c r="AQ93" s="8"/>
-      <c r="AR93" s="8"/>
-      <c r="AS93" s="8"/>
-      <c r="AT93" s="8"/>
-      <c r="AU93" s="8"/>
-      <c r="AV93" s="8"/>
-      <c r="AW93" s="8"/>
-      <c r="AX93" s="8"/>
-      <c r="AY93" s="8"/>
-    </row>
-    <row r="94" spans="1:51" ht="14">
-      <c r="A94" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="95" spans="1:51" ht="14">
-      <c r="A95" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:51" ht="14">
-      <c r="A96" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="6"/>
-    </row>
-    <row r="97" spans="1:51" ht="14">
-      <c r="A97" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="6"/>
-    </row>
-    <row r="98" spans="1:51" ht="14">
-      <c r="A98" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
-      <c r="O98" s="6"/>
-    </row>
-    <row r="99" spans="1:51" ht="14">
-      <c r="A99" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="6"/>
-    </row>
-    <row r="100" spans="1:51" ht="14">
-      <c r="A100" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="6"/>
-    </row>
-    <row r="101" spans="1:51" ht="14">
-      <c r="A101" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="6"/>
-    </row>
-    <row r="102" spans="1:51" ht="14">
-      <c r="A102" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="6"/>
-    </row>
-    <row r="103" spans="1:51" ht="14">
-      <c r="A103" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
-      <c r="O103" s="6"/>
-    </row>
-    <row r="105" spans="1:51" ht="14">
-      <c r="A105" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="106" spans="1:51" ht="14">
-      <c r="A106" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="8"/>
-      <c r="M106" s="8"/>
-      <c r="N106" s="8"/>
-      <c r="O106" s="8"/>
-      <c r="P106" s="8"/>
-      <c r="Q106" s="8"/>
-      <c r="R106" s="8"/>
-      <c r="S106" s="8"/>
-      <c r="T106" s="8"/>
-      <c r="U106" s="8"/>
-      <c r="V106" s="8"/>
-      <c r="W106" s="8"/>
-      <c r="X106" s="8"/>
-      <c r="Y106" s="8"/>
-      <c r="Z106" s="8"/>
-      <c r="AA106" s="8"/>
-      <c r="AB106" s="8"/>
-      <c r="AC106" s="8"/>
-      <c r="AD106" s="8"/>
-      <c r="AE106" s="8"/>
-      <c r="AF106" s="8"/>
-      <c r="AG106" s="8"/>
-      <c r="AH106" s="8"/>
-      <c r="AI106" s="8"/>
-      <c r="AJ106" s="8"/>
-      <c r="AK106" s="8"/>
-      <c r="AL106" s="8"/>
-      <c r="AM106" s="8"/>
-      <c r="AN106" s="8"/>
-      <c r="AO106" s="8"/>
-      <c r="AP106" s="8"/>
-      <c r="AQ106" s="8"/>
-      <c r="AR106" s="8"/>
-      <c r="AS106" s="8"/>
-      <c r="AT106" s="8"/>
-      <c r="AU106" s="8"/>
-      <c r="AV106" s="8"/>
-      <c r="AW106" s="8"/>
-      <c r="AX106" s="8"/>
-      <c r="AY106" s="8"/>
-    </row>
-    <row r="107" spans="1:51" ht="14">
-      <c r="A107" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="108" spans="1:51" ht="14">
-      <c r="A108" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="109" spans="1:51" ht="14">
-      <c r="A109" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="4"/>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-      <c r="M109" s="4"/>
-      <c r="N109" s="4"/>
-      <c r="O109" s="6"/>
-    </row>
-    <row r="110" spans="1:51" ht="14">
-      <c r="A110" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B110" s="3"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-      <c r="M110" s="4"/>
-      <c r="N110" s="4"/>
-      <c r="O110" s="6"/>
-    </row>
-    <row r="111" spans="1:51" ht="14">
-      <c r="A111" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="4"/>
-      <c r="N111" s="4"/>
-      <c r="O111" s="6"/>
-    </row>
-    <row r="112" spans="1:51" ht="14">
-      <c r="A112" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="4"/>
-      <c r="O112" s="6"/>
-    </row>
-    <row r="113" spans="1:51" ht="14">
-      <c r="A113" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-      <c r="M113" s="4"/>
-      <c r="N113" s="4"/>
-      <c r="O113" s="6"/>
-    </row>
-    <row r="114" spans="1:51" ht="14">
-      <c r="A114" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B114" s="3"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-      <c r="M114" s="4"/>
-      <c r="N114" s="4"/>
-      <c r="O114" s="6"/>
-    </row>
-    <row r="115" spans="1:51" ht="14">
-      <c r="A115" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
-      <c r="M115" s="4"/>
-      <c r="N115" s="4"/>
-      <c r="O115" s="6"/>
-    </row>
-    <row r="116" spans="1:51" ht="14">
-      <c r="A116" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B116" s="3"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
-      <c r="N116" s="4"/>
-      <c r="O116" s="6"/>
-    </row>
-    <row r="118" spans="1:51" ht="14">
-      <c r="A118" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="119" spans="1:51" ht="14">
-      <c r="A119" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
-      <c r="K119" s="8"/>
-      <c r="L119" s="8"/>
-      <c r="M119" s="8"/>
-      <c r="N119" s="8"/>
-      <c r="O119" s="8"/>
-      <c r="P119" s="8"/>
-      <c r="Q119" s="8"/>
-      <c r="R119" s="8"/>
-      <c r="S119" s="8"/>
-      <c r="T119" s="8"/>
-      <c r="U119" s="8"/>
-      <c r="V119" s="8"/>
-      <c r="W119" s="8"/>
-      <c r="X119" s="8"/>
-      <c r="Y119" s="8"/>
-      <c r="Z119" s="8"/>
-      <c r="AA119" s="8"/>
-      <c r="AB119" s="8"/>
-      <c r="AC119" s="8"/>
-      <c r="AD119" s="8"/>
-      <c r="AE119" s="8"/>
-      <c r="AF119" s="8"/>
-      <c r="AG119" s="8"/>
-      <c r="AH119" s="8"/>
-      <c r="AI119" s="8"/>
-      <c r="AJ119" s="8"/>
-      <c r="AK119" s="8"/>
-      <c r="AL119" s="8"/>
-      <c r="AM119" s="8"/>
-      <c r="AN119" s="8"/>
-      <c r="AO119" s="8"/>
-      <c r="AP119" s="8"/>
-      <c r="AQ119" s="8"/>
-      <c r="AR119" s="8"/>
-      <c r="AS119" s="8"/>
-      <c r="AT119" s="8"/>
-      <c r="AU119" s="8"/>
-      <c r="AV119" s="8"/>
-      <c r="AW119" s="8"/>
-      <c r="AX119" s="8"/>
-      <c r="AY119" s="8"/>
-    </row>
-    <row r="120" spans="1:51" ht="14">
-      <c r="A120" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="121" spans="1:51" ht="14">
-      <c r="A121" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K121" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L121" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M121" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N121" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O121" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" spans="1:51" ht="14">
-      <c r="A122" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D122" s="4"/>
-      <c r="E122" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="F122" s="4"/>
-      <c r="G122" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J122" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
-      <c r="O122" s="6"/>
-    </row>
-    <row r="123" spans="1:51" ht="14">
-      <c r="A123" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="F123" s="4"/>
-      <c r="G123" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J123" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="4"/>
-      <c r="N123" s="4"/>
-      <c r="O123" s="6"/>
-    </row>
-    <row r="124" spans="1:51" ht="14">
-      <c r="A124" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="F124" s="4"/>
-      <c r="G124" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J124" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="4"/>
-      <c r="N124" s="4"/>
-      <c r="O124" s="6"/>
-    </row>
-    <row r="125" spans="1:51" ht="14">
-      <c r="A125" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="6"/>
-    </row>
-    <row r="126" spans="1:51" ht="14">
-      <c r="A126" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B126" s="3"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
-      <c r="O126" s="6"/>
-    </row>
-    <row r="127" spans="1:51" ht="14">
-      <c r="A127" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
-      <c r="O127" s="6"/>
-    </row>
-    <row r="128" spans="1:51" ht="14">
-      <c r="A128" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B128" s="3"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
-      <c r="N128" s="4"/>
-      <c r="O128" s="6"/>
-    </row>
-    <row r="129" spans="1:51" ht="14">
-      <c r="A129" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B129" s="3"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
-      <c r="N129" s="4"/>
-      <c r="O129" s="6"/>
-    </row>
-    <row r="131" spans="1:51" ht="14">
-      <c r="A131" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="132" spans="1:51" ht="14">
-      <c r="A132" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="8"/>
-      <c r="J132" s="8"/>
-      <c r="K132" s="8"/>
-      <c r="L132" s="8"/>
-      <c r="M132" s="8"/>
-      <c r="N132" s="8"/>
-      <c r="O132" s="8"/>
-      <c r="P132" s="8"/>
-      <c r="Q132" s="8"/>
-      <c r="R132" s="8"/>
-      <c r="S132" s="8"/>
-      <c r="T132" s="8"/>
-      <c r="U132" s="8"/>
-      <c r="V132" s="8"/>
-      <c r="W132" s="8"/>
-      <c r="X132" s="8"/>
-      <c r="Y132" s="8"/>
-      <c r="Z132" s="8"/>
-      <c r="AA132" s="8"/>
-      <c r="AB132" s="8"/>
-      <c r="AC132" s="8"/>
-      <c r="AD132" s="8"/>
-      <c r="AE132" s="8"/>
-      <c r="AF132" s="8"/>
-      <c r="AG132" s="8"/>
-      <c r="AH132" s="8"/>
-      <c r="AI132" s="8"/>
-      <c r="AJ132" s="8"/>
-      <c r="AK132" s="8"/>
-      <c r="AL132" s="8"/>
-      <c r="AM132" s="8"/>
-      <c r="AN132" s="8"/>
-      <c r="AO132" s="8"/>
-      <c r="AP132" s="8"/>
-      <c r="AQ132" s="8"/>
-      <c r="AR132" s="8"/>
-      <c r="AS132" s="8"/>
-      <c r="AT132" s="8"/>
-      <c r="AU132" s="8"/>
-      <c r="AV132" s="8"/>
-      <c r="AW132" s="8"/>
-      <c r="AX132" s="8"/>
-      <c r="AY132" s="8"/>
-    </row>
-    <row r="133" spans="1:51" ht="14">
-      <c r="A133" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="134" spans="1:51" ht="14">
-      <c r="A134" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K134" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L134" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M134" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N134" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O134" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="135" spans="1:51" ht="14">
-      <c r="A135" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D135" s="4"/>
-      <c r="E135" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F135" s="4"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J135" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="6"/>
-    </row>
-    <row r="136" spans="1:51" ht="14">
-      <c r="A136" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F136" s="4"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J136" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="O136" s="6"/>
-    </row>
-    <row r="137" spans="1:51" ht="14">
-      <c r="A137" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
-      <c r="M137" s="4"/>
-      <c r="N137" s="4"/>
-      <c r="O137" s="6"/>
-    </row>
-    <row r="138" spans="1:51" ht="14">
-      <c r="A138" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B138" s="3"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="3"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-      <c r="M138" s="4"/>
-      <c r="N138" s="4"/>
-      <c r="O138" s="6"/>
-    </row>
-    <row r="139" spans="1:51" ht="14">
-      <c r="A139" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B139" s="3"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="O139" s="6"/>
-    </row>
-    <row r="140" spans="1:51" ht="14">
-      <c r="A140" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B140" s="3"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="4"/>
-      <c r="I140" s="3"/>
-      <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
-      <c r="M140" s="4"/>
-      <c r="N140" s="4"/>
-      <c r="O140" s="6"/>
-    </row>
-    <row r="141" spans="1:51" ht="14">
-      <c r="A141" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B141" s="3"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="3"/>
-      <c r="H141" s="4"/>
-      <c r="I141" s="3"/>
-      <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4"/>
-      <c r="N141" s="4"/>
-      <c r="O141" s="6"/>
-    </row>
-    <row r="142" spans="1:51" ht="14">
-      <c r="A142" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B142" s="3"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="4"/>
-      <c r="I142" s="3"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="4"/>
-      <c r="O142" s="6"/>
-    </row>
-    <row r="144" spans="1:51" ht="14">
-      <c r="A144" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="145" spans="1:51" ht="14">
-      <c r="A145" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="8"/>
-      <c r="J145" s="8"/>
-      <c r="K145" s="8"/>
-      <c r="L145" s="8"/>
-      <c r="M145" s="8"/>
-      <c r="N145" s="8"/>
-      <c r="O145" s="8"/>
-      <c r="P145" s="8"/>
-      <c r="Q145" s="8"/>
-      <c r="R145" s="8"/>
-      <c r="S145" s="8"/>
-      <c r="T145" s="8"/>
-      <c r="U145" s="8"/>
-      <c r="V145" s="8"/>
-      <c r="W145" s="8"/>
-      <c r="X145" s="8"/>
-      <c r="Y145" s="8"/>
-      <c r="Z145" s="8"/>
-      <c r="AA145" s="8"/>
-      <c r="AB145" s="8"/>
-      <c r="AC145" s="8"/>
-      <c r="AD145" s="8"/>
-      <c r="AE145" s="8"/>
-      <c r="AF145" s="8"/>
-      <c r="AG145" s="8"/>
-      <c r="AH145" s="8"/>
-      <c r="AI145" s="8"/>
-      <c r="AJ145" s="8"/>
-      <c r="AK145" s="8"/>
-      <c r="AL145" s="8"/>
-      <c r="AM145" s="8"/>
-      <c r="AN145" s="8"/>
-      <c r="AO145" s="8"/>
-      <c r="AP145" s="8"/>
-      <c r="AQ145" s="8"/>
-      <c r="AR145" s="8"/>
-      <c r="AS145" s="8"/>
-      <c r="AT145" s="8"/>
-      <c r="AU145" s="8"/>
-      <c r="AV145" s="8"/>
-      <c r="AW145" s="8"/>
-      <c r="AX145" s="8"/>
-      <c r="AY145" s="8"/>
-    </row>
-    <row r="146" spans="1:51" ht="14">
-      <c r="A146" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="147" spans="1:51" ht="14">
-      <c r="A147" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K147" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L147" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M147" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N147" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O147" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="148" spans="1:51" ht="14">
-      <c r="A148" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D148" s="4"/>
-      <c r="E148" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J148" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="4"/>
-      <c r="O148" s="6"/>
-    </row>
-    <row r="149" spans="1:51" ht="14">
-      <c r="A149" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B149" s="3"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="3"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="4"/>
-      <c r="N149" s="4"/>
-      <c r="O149" s="6"/>
-    </row>
-    <row r="150" spans="1:51" ht="14">
-      <c r="A150" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B150" s="3"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
-      <c r="O150" s="6"/>
-    </row>
-    <row r="151" spans="1:51" ht="14">
-      <c r="A151" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B151" s="3"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="3"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="4"/>
-      <c r="O151" s="6"/>
-    </row>
-    <row r="152" spans="1:51" ht="14">
-      <c r="A152" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B152" s="3"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="3"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
-      <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
-      <c r="O152" s="6"/>
-    </row>
-    <row r="153" spans="1:51" ht="14">
-      <c r="A153" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B153" s="3"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
-      <c r="I153" s="3"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="O153" s="6"/>
-    </row>
-    <row r="154" spans="1:51" ht="14">
-      <c r="A154" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B154" s="3"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="4"/>
-      <c r="I154" s="3"/>
-      <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
-      <c r="M154" s="4"/>
-      <c r="N154" s="4"/>
-      <c r="O154" s="6"/>
-    </row>
-    <row r="155" spans="1:51" ht="14">
-      <c r="A155" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B155" s="3"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
-      <c r="I155" s="3"/>
-      <c r="J155" s="4"/>
-      <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
-      <c r="M155" s="4"/>
-      <c r="N155" s="4"/>
-      <c r="O155" s="6"/>
-    </row>
-    <row r="157" spans="1:51" ht="14">
-      <c r="A157" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="158" spans="1:51" ht="14">
-      <c r="A158" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
-      <c r="I158" s="8"/>
-      <c r="J158" s="8"/>
-      <c r="K158" s="8"/>
-      <c r="L158" s="8"/>
-      <c r="M158" s="8"/>
-      <c r="N158" s="8"/>
-      <c r="O158" s="8"/>
-      <c r="P158" s="8"/>
-      <c r="Q158" s="8"/>
-      <c r="R158" s="8"/>
-      <c r="S158" s="8"/>
-      <c r="T158" s="8"/>
-      <c r="U158" s="8"/>
-      <c r="V158" s="8"/>
-      <c r="W158" s="8"/>
-      <c r="X158" s="8"/>
-      <c r="Y158" s="8"/>
-      <c r="Z158" s="8"/>
-      <c r="AA158" s="8"/>
-      <c r="AB158" s="8"/>
-      <c r="AC158" s="8"/>
-      <c r="AD158" s="8"/>
-      <c r="AE158" s="8"/>
-      <c r="AF158" s="8"/>
-      <c r="AG158" s="8"/>
-      <c r="AH158" s="8"/>
-      <c r="AI158" s="8"/>
-      <c r="AJ158" s="8"/>
-      <c r="AK158" s="8"/>
-      <c r="AL158" s="8"/>
-      <c r="AM158" s="8"/>
-      <c r="AN158" s="8"/>
-      <c r="AO158" s="8"/>
-      <c r="AP158" s="8"/>
-      <c r="AQ158" s="8"/>
-      <c r="AR158" s="8"/>
-      <c r="AS158" s="8"/>
-      <c r="AT158" s="8"/>
-      <c r="AU158" s="8"/>
-      <c r="AV158" s="8"/>
-      <c r="AW158" s="8"/>
-      <c r="AX158" s="8"/>
-      <c r="AY158" s="8"/>
-    </row>
-    <row r="159" spans="1:51" ht="14">
-      <c r="A159" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="160" spans="1:51" ht="14">
-      <c r="A160" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J160" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K160" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L160" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M160" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N160" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O160" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="161" spans="1:51" ht="14">
-      <c r="A161" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B161" s="3"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-      <c r="H161" s="4"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="4"/>
-      <c r="K161" s="4"/>
-      <c r="L161" s="4"/>
-      <c r="M161" s="4"/>
-      <c r="N161" s="4"/>
-      <c r="O161" s="6"/>
-    </row>
-    <row r="162" spans="1:51" ht="14">
-      <c r="A162" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B162" s="3"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
-      <c r="H162" s="4"/>
-      <c r="I162" s="3"/>
-      <c r="J162" s="4"/>
-      <c r="K162" s="4"/>
-      <c r="L162" s="4"/>
-      <c r="M162" s="4"/>
-      <c r="N162" s="4"/>
-      <c r="O162" s="6"/>
-    </row>
-    <row r="163" spans="1:51" ht="14">
-      <c r="A163" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B163" s="3"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
-      <c r="H163" s="4"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="4"/>
-      <c r="K163" s="4"/>
-      <c r="L163" s="4"/>
-      <c r="M163" s="4"/>
-      <c r="N163" s="4"/>
-      <c r="O163" s="6"/>
-    </row>
-    <row r="164" spans="1:51" ht="14">
-      <c r="A164" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B164" s="3"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
-      <c r="H164" s="4"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="4"/>
-      <c r="K164" s="4"/>
-      <c r="L164" s="4"/>
-      <c r="M164" s="4"/>
-      <c r="N164" s="4"/>
-      <c r="O164" s="6"/>
-    </row>
-    <row r="165" spans="1:51" ht="14">
-      <c r="A165" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
-      <c r="H165" s="4"/>
-      <c r="I165" s="3"/>
-      <c r="J165" s="4"/>
-      <c r="K165" s="4"/>
-      <c r="L165" s="4"/>
-      <c r="M165" s="4"/>
-      <c r="N165" s="4"/>
-      <c r="O165" s="6"/>
-    </row>
-    <row r="166" spans="1:51" ht="14">
-      <c r="A166" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B166" s="3"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-      <c r="H166" s="4"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="4"/>
-      <c r="K166" s="4"/>
-      <c r="L166" s="4"/>
-      <c r="M166" s="4"/>
-      <c r="N166" s="4"/>
-      <c r="O166" s="6"/>
-    </row>
-    <row r="167" spans="1:51" ht="14">
-      <c r="A167" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
-      <c r="H167" s="4"/>
-      <c r="I167" s="3"/>
-      <c r="J167" s="4"/>
-      <c r="K167" s="4"/>
-      <c r="L167" s="4"/>
-      <c r="M167" s="4"/>
-      <c r="N167" s="4"/>
-      <c r="O167" s="6"/>
-    </row>
-    <row r="168" spans="1:51" ht="14">
-      <c r="A168" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B168" s="3"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="4"/>
-      <c r="I168" s="3"/>
-      <c r="J168" s="4"/>
-      <c r="K168" s="4"/>
-      <c r="L168" s="4"/>
-      <c r="M168" s="4"/>
-      <c r="N168" s="4"/>
-      <c r="O168" s="6"/>
-    </row>
-    <row r="170" spans="1:51" ht="14">
-      <c r="A170" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="171" spans="1:51" ht="14">
-      <c r="A171" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
-      <c r="I171" s="8"/>
-      <c r="J171" s="8"/>
-      <c r="K171" s="8"/>
-      <c r="L171" s="8"/>
-      <c r="M171" s="8"/>
-      <c r="N171" s="8"/>
-      <c r="O171" s="8"/>
-      <c r="P171" s="8"/>
-      <c r="Q171" s="8"/>
-      <c r="R171" s="8"/>
-      <c r="S171" s="8"/>
-      <c r="T171" s="8"/>
-      <c r="U171" s="8"/>
-      <c r="V171" s="8"/>
-      <c r="W171" s="8"/>
-      <c r="X171" s="8"/>
-      <c r="Y171" s="8"/>
-      <c r="Z171" s="8"/>
-      <c r="AA171" s="8"/>
-      <c r="AB171" s="8"/>
-      <c r="AC171" s="8"/>
-      <c r="AD171" s="8"/>
-      <c r="AE171" s="8"/>
-      <c r="AF171" s="8"/>
-      <c r="AG171" s="8"/>
-      <c r="AH171" s="8"/>
-      <c r="AI171" s="8"/>
-      <c r="AJ171" s="8"/>
-      <c r="AK171" s="8"/>
-      <c r="AL171" s="8"/>
-      <c r="AM171" s="8"/>
-      <c r="AN171" s="8"/>
-      <c r="AO171" s="8"/>
-      <c r="AP171" s="8"/>
-      <c r="AQ171" s="8"/>
-      <c r="AR171" s="8"/>
-      <c r="AS171" s="8"/>
-      <c r="AT171" s="8"/>
-      <c r="AU171" s="8"/>
-      <c r="AV171" s="8"/>
-      <c r="AW171" s="8"/>
-      <c r="AX171" s="8"/>
-      <c r="AY171" s="8"/>
-    </row>
-    <row r="172" spans="1:51" ht="14">
-      <c r="A172" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="173" spans="1:51" ht="14">
-      <c r="A173" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J173" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K173" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L173" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M173" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O173" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="174" spans="1:51" ht="14">
-      <c r="A174" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B174" s="3"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="3"/>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
-      <c r="L174" s="4"/>
-      <c r="M174" s="4"/>
-      <c r="N174" s="4"/>
-      <c r="O174" s="6"/>
-    </row>
-    <row r="175" spans="1:51" ht="14">
-      <c r="A175" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B175" s="3"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="3"/>
-      <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
-      <c r="L175" s="4"/>
-      <c r="M175" s="4"/>
-      <c r="N175" s="4"/>
-      <c r="O175" s="6"/>
-    </row>
-    <row r="176" spans="1:51" ht="14">
-      <c r="A176" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B176" s="3"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="3"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
-      <c r="L176" s="4"/>
-      <c r="M176" s="4"/>
-      <c r="N176" s="4"/>
-      <c r="O176" s="6"/>
-    </row>
-    <row r="177" spans="1:51" ht="14">
-      <c r="A177" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B177" s="3"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="4"/>
-      <c r="H177" s="4"/>
-      <c r="I177" s="3"/>
-      <c r="J177" s="4"/>
-      <c r="K177" s="4"/>
-      <c r="L177" s="4"/>
-      <c r="M177" s="4"/>
-      <c r="N177" s="4"/>
-      <c r="O177" s="6"/>
-    </row>
-    <row r="178" spans="1:51" ht="14">
-      <c r="A178" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B178" s="3"/>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="4"/>
-      <c r="G178" s="4"/>
-      <c r="H178" s="4"/>
-      <c r="I178" s="3"/>
-      <c r="J178" s="4"/>
-      <c r="K178" s="4"/>
-      <c r="L178" s="4"/>
-      <c r="M178" s="4"/>
-      <c r="N178" s="4"/>
-      <c r="O178" s="6"/>
-    </row>
-    <row r="179" spans="1:51" ht="14">
-      <c r="A179" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B179" s="3"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="4"/>
-      <c r="G179" s="4"/>
-      <c r="H179" s="4"/>
-      <c r="I179" s="3"/>
-      <c r="J179" s="4"/>
-      <c r="K179" s="4"/>
-      <c r="L179" s="4"/>
-      <c r="M179" s="4"/>
-      <c r="N179" s="4"/>
-      <c r="O179" s="6"/>
-    </row>
-    <row r="180" spans="1:51" ht="14">
-      <c r="A180" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B180" s="3"/>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
-      <c r="H180" s="4"/>
-      <c r="I180" s="3"/>
-      <c r="J180" s="4"/>
-      <c r="K180" s="4"/>
-      <c r="L180" s="4"/>
-      <c r="M180" s="4"/>
-      <c r="N180" s="4"/>
-      <c r="O180" s="6"/>
-    </row>
-    <row r="181" spans="1:51" ht="14">
-      <c r="A181" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B181" s="3"/>
-      <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="4"/>
-      <c r="G181" s="4"/>
-      <c r="H181" s="4"/>
-      <c r="I181" s="3"/>
-      <c r="J181" s="4"/>
-      <c r="K181" s="4"/>
-      <c r="L181" s="4"/>
-      <c r="M181" s="4"/>
-      <c r="N181" s="4"/>
-      <c r="O181" s="6"/>
-    </row>
-    <row r="183" spans="1:51" ht="14">
-      <c r="A183" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="184" spans="1:51" ht="14">
-      <c r="A184" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
-      <c r="F184" s="8"/>
-      <c r="G184" s="8"/>
-      <c r="H184" s="8"/>
-      <c r="I184" s="8"/>
-      <c r="J184" s="8"/>
-      <c r="K184" s="8"/>
-      <c r="L184" s="8"/>
-      <c r="M184" s="8"/>
-      <c r="N184" s="8"/>
-      <c r="O184" s="8"/>
-      <c r="P184" s="8"/>
-      <c r="Q184" s="8"/>
-      <c r="R184" s="8"/>
-      <c r="S184" s="8"/>
-      <c r="T184" s="8"/>
-      <c r="U184" s="8"/>
-      <c r="V184" s="8"/>
-      <c r="W184" s="8"/>
-      <c r="X184" s="8"/>
-      <c r="Y184" s="8"/>
-      <c r="Z184" s="8"/>
-      <c r="AA184" s="8"/>
-      <c r="AB184" s="8"/>
-      <c r="AC184" s="8"/>
-      <c r="AD184" s="8"/>
-      <c r="AE184" s="8"/>
-      <c r="AF184" s="8"/>
-      <c r="AG184" s="8"/>
-      <c r="AH184" s="8"/>
-      <c r="AI184" s="8"/>
-      <c r="AJ184" s="8"/>
-      <c r="AK184" s="8"/>
-      <c r="AL184" s="8"/>
-      <c r="AM184" s="8"/>
-      <c r="AN184" s="8"/>
-      <c r="AO184" s="8"/>
-      <c r="AP184" s="8"/>
-      <c r="AQ184" s="8"/>
-      <c r="AR184" s="8"/>
-      <c r="AS184" s="8"/>
-      <c r="AT184" s="8"/>
-      <c r="AU184" s="8"/>
-      <c r="AV184" s="8"/>
-      <c r="AW184" s="8"/>
-      <c r="AX184" s="8"/>
-      <c r="AY184" s="8"/>
-    </row>
-    <row r="185" spans="1:51" ht="14">
-      <c r="A185" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="186" spans="1:51" ht="14">
-      <c r="A186" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H186" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I186" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J186" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K186" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L186" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M186" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O186" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="187" spans="1:51" ht="14">
-      <c r="A187" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B187" s="3"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="4"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="4"/>
-      <c r="I187" s="3"/>
-      <c r="J187" s="4"/>
-      <c r="K187" s="4"/>
-      <c r="L187" s="4"/>
-      <c r="M187" s="4"/>
-      <c r="N187" s="4"/>
-      <c r="O187" s="6"/>
-    </row>
-    <row r="188" spans="1:51" ht="14">
-      <c r="A188" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B188" s="3"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="4"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="4"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="4"/>
-      <c r="K188" s="4"/>
-      <c r="L188" s="4"/>
-      <c r="M188" s="4"/>
-      <c r="N188" s="4"/>
-      <c r="O188" s="6"/>
-    </row>
-    <row r="189" spans="1:51" ht="14">
-      <c r="A189" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B189" s="3"/>
-      <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="4"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="4"/>
-      <c r="I189" s="3"/>
-      <c r="J189" s="4"/>
-      <c r="K189" s="4"/>
-      <c r="L189" s="4"/>
-      <c r="M189" s="4"/>
-      <c r="N189" s="4"/>
-      <c r="O189" s="6"/>
-    </row>
-    <row r="190" spans="1:51" ht="14">
-      <c r="A190" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B190" s="3"/>
-      <c r="C190" s="4"/>
-      <c r="D190" s="4"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="4"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="4"/>
-      <c r="I190" s="3"/>
-      <c r="J190" s="4"/>
-      <c r="K190" s="4"/>
-      <c r="L190" s="4"/>
-      <c r="M190" s="4"/>
-      <c r="N190" s="4"/>
-      <c r="O190" s="6"/>
-    </row>
-    <row r="191" spans="1:51" ht="14">
-      <c r="A191" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B191" s="3"/>
-      <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="4"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="4"/>
-      <c r="I191" s="3"/>
-      <c r="J191" s="4"/>
-      <c r="K191" s="4"/>
-      <c r="L191" s="4"/>
-      <c r="M191" s="4"/>
-      <c r="N191" s="4"/>
-      <c r="O191" s="6"/>
-    </row>
-    <row r="192" spans="1:51" ht="14">
-      <c r="A192" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B192" s="3"/>
-      <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="4"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="4"/>
-      <c r="I192" s="3"/>
-      <c r="J192" s="4"/>
-      <c r="K192" s="4"/>
-      <c r="L192" s="4"/>
-      <c r="M192" s="4"/>
-      <c r="N192" s="4"/>
-      <c r="O192" s="6"/>
-    </row>
-    <row r="193" spans="1:51" ht="14">
-      <c r="A193" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B193" s="3"/>
-      <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="4"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="4"/>
-      <c r="I193" s="3"/>
-      <c r="J193" s="4"/>
-      <c r="K193" s="4"/>
-      <c r="L193" s="4"/>
-      <c r="M193" s="4"/>
-      <c r="N193" s="4"/>
-      <c r="O193" s="6"/>
-    </row>
-    <row r="194" spans="1:51" ht="14">
-      <c r="A194" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B194" s="3"/>
-      <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="4"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="4"/>
-      <c r="I194" s="3"/>
-      <c r="J194" s="4"/>
-      <c r="K194" s="4"/>
-      <c r="L194" s="4"/>
-      <c r="M194" s="4"/>
-      <c r="N194" s="4"/>
-      <c r="O194" s="6"/>
-    </row>
-    <row r="196" spans="1:51" ht="14">
-      <c r="A196" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="197" spans="1:51" ht="14">
-      <c r="A197" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
-      <c r="F197" s="8"/>
-      <c r="G197" s="8"/>
-      <c r="H197" s="8"/>
-      <c r="I197" s="8"/>
-      <c r="J197" s="8"/>
-      <c r="K197" s="8"/>
-      <c r="L197" s="8"/>
-      <c r="M197" s="8"/>
-      <c r="N197" s="8"/>
-      <c r="O197" s="8"/>
-      <c r="P197" s="8"/>
-      <c r="Q197" s="8"/>
-      <c r="R197" s="8"/>
-      <c r="S197" s="8"/>
-      <c r="T197" s="8"/>
-      <c r="U197" s="8"/>
-      <c r="V197" s="8"/>
-      <c r="W197" s="8"/>
-      <c r="X197" s="8"/>
-      <c r="Y197" s="8"/>
-      <c r="Z197" s="8"/>
-      <c r="AA197" s="8"/>
-      <c r="AB197" s="8"/>
-      <c r="AC197" s="8"/>
-      <c r="AD197" s="8"/>
-      <c r="AE197" s="8"/>
-      <c r="AF197" s="8"/>
-      <c r="AG197" s="8"/>
-      <c r="AH197" s="8"/>
-      <c r="AI197" s="8"/>
-      <c r="AJ197" s="8"/>
-      <c r="AK197" s="8"/>
-      <c r="AL197" s="8"/>
-      <c r="AM197" s="8"/>
-      <c r="AN197" s="8"/>
-      <c r="AO197" s="8"/>
-      <c r="AP197" s="8"/>
-      <c r="AQ197" s="8"/>
-      <c r="AR197" s="8"/>
-      <c r="AS197" s="8"/>
-      <c r="AT197" s="8"/>
-      <c r="AU197" s="8"/>
-      <c r="AV197" s="8"/>
-      <c r="AW197" s="8"/>
-      <c r="AX197" s="8"/>
-      <c r="AY197" s="8"/>
-    </row>
-    <row r="198" spans="1:51" ht="14">
-      <c r="A198" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="199" spans="1:51" ht="14">
-      <c r="A199" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H199" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I199" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J199" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K199" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L199" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M199" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O199" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="200" spans="1:51" ht="14">
-      <c r="A200" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B200" s="3"/>
-      <c r="C200" s="4"/>
-      <c r="D200" s="4"/>
-      <c r="E200" s="4"/>
-      <c r="F200" s="4"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="4"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="4"/>
-      <c r="K200" s="4"/>
-      <c r="L200" s="4"/>
-      <c r="M200" s="4"/>
-      <c r="N200" s="4"/>
-      <c r="O200" s="6"/>
-    </row>
-    <row r="201" spans="1:51" ht="14">
-      <c r="A201" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B201" s="3"/>
-      <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
-      <c r="E201" s="4"/>
-      <c r="F201" s="4"/>
-      <c r="G201" s="3"/>
-      <c r="H201" s="4"/>
-      <c r="I201" s="3"/>
-      <c r="J201" s="4"/>
-      <c r="K201" s="4"/>
-      <c r="L201" s="4"/>
-      <c r="M201" s="4"/>
-      <c r="N201" s="4"/>
-      <c r="O201" s="6"/>
-    </row>
-    <row r="202" spans="1:51" ht="14">
-      <c r="A202" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B202" s="3"/>
-      <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
-      <c r="E202" s="4"/>
-      <c r="F202" s="4"/>
-      <c r="G202" s="3"/>
-      <c r="H202" s="4"/>
-      <c r="I202" s="3"/>
-      <c r="J202" s="4"/>
-      <c r="K202" s="4"/>
-      <c r="L202" s="4"/>
-      <c r="M202" s="4"/>
-      <c r="N202" s="4"/>
-      <c r="O202" s="6"/>
-    </row>
-    <row r="203" spans="1:51" ht="14">
-      <c r="A203" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B203" s="3"/>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
-      <c r="G203" s="3"/>
-      <c r="H203" s="4"/>
-      <c r="I203" s="3"/>
-      <c r="J203" s="4"/>
-      <c r="K203" s="4"/>
-      <c r="L203" s="4"/>
-      <c r="M203" s="4"/>
-      <c r="N203" s="4"/>
-      <c r="O203" s="6"/>
-    </row>
-    <row r="204" spans="1:51" ht="14">
-      <c r="A204" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B204" s="3"/>
-      <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="4"/>
-      <c r="G204" s="3"/>
-      <c r="H204" s="4"/>
-      <c r="I204" s="3"/>
-      <c r="J204" s="4"/>
-      <c r="K204" s="4"/>
-      <c r="L204" s="4"/>
-      <c r="M204" s="4"/>
-      <c r="N204" s="4"/>
-      <c r="O204" s="6"/>
-    </row>
-    <row r="205" spans="1:51" ht="14">
-      <c r="A205" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B205" s="3"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
-      <c r="E205" s="4"/>
-      <c r="F205" s="4"/>
-      <c r="G205" s="3"/>
-      <c r="H205" s="4"/>
-      <c r="I205" s="3"/>
-      <c r="J205" s="4"/>
-      <c r="K205" s="4"/>
-      <c r="L205" s="4"/>
-      <c r="M205" s="4"/>
-      <c r="N205" s="4"/>
-      <c r="O205" s="6"/>
-    </row>
-    <row r="206" spans="1:51" ht="14">
-      <c r="A206" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B206" s="3"/>
-      <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
-      <c r="E206" s="4"/>
-      <c r="F206" s="4"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="4"/>
-      <c r="I206" s="3"/>
-      <c r="J206" s="4"/>
-      <c r="K206" s="4"/>
-      <c r="L206" s="4"/>
-      <c r="M206" s="4"/>
-      <c r="N206" s="4"/>
-      <c r="O206" s="6"/>
-    </row>
-    <row r="207" spans="1:51" ht="14">
-      <c r="A207" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B207" s="3"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
-      <c r="E207" s="4"/>
-      <c r="F207" s="4"/>
-      <c r="G207" s="3"/>
-      <c r="H207" s="4"/>
-      <c r="I207" s="3"/>
-      <c r="J207" s="4"/>
-      <c r="K207" s="4"/>
-      <c r="L207" s="4"/>
-      <c r="M207" s="4"/>
-      <c r="N207" s="4"/>
-      <c r="O207" s="6"/>
-    </row>
-    <row r="209" spans="1:51" ht="14">
-      <c r="A209" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="210" spans="1:51" ht="14">
-      <c r="A210" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B210" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="C210" s="8"/>
-      <c r="D210" s="8"/>
-      <c r="E210" s="8"/>
-      <c r="F210" s="8"/>
-      <c r="G210" s="8"/>
-      <c r="H210" s="8"/>
-      <c r="I210" s="8"/>
-      <c r="J210" s="8"/>
-      <c r="K210" s="8"/>
-      <c r="L210" s="8"/>
-      <c r="M210" s="8"/>
-      <c r="N210" s="8"/>
-      <c r="O210" s="8"/>
-      <c r="P210" s="8"/>
-      <c r="Q210" s="8"/>
-      <c r="R210" s="8"/>
-      <c r="S210" s="8"/>
-      <c r="T210" s="8"/>
-      <c r="U210" s="8"/>
-      <c r="V210" s="8"/>
-      <c r="W210" s="8"/>
-      <c r="X210" s="8"/>
-      <c r="Y210" s="8"/>
-      <c r="Z210" s="8"/>
-      <c r="AA210" s="8"/>
-      <c r="AB210" s="8"/>
-      <c r="AC210" s="8"/>
-      <c r="AD210" s="8"/>
-      <c r="AE210" s="8"/>
-      <c r="AF210" s="8"/>
-      <c r="AG210" s="8"/>
-      <c r="AH210" s="8"/>
-      <c r="AI210" s="8"/>
-      <c r="AJ210" s="8"/>
-      <c r="AK210" s="8"/>
-      <c r="AL210" s="8"/>
-      <c r="AM210" s="8"/>
-      <c r="AN210" s="8"/>
-      <c r="AO210" s="8"/>
-      <c r="AP210" s="8"/>
-      <c r="AQ210" s="8"/>
-      <c r="AR210" s="8"/>
-      <c r="AS210" s="8"/>
-      <c r="AT210" s="8"/>
-      <c r="AU210" s="8"/>
-      <c r="AV210" s="8"/>
-      <c r="AW210" s="8"/>
-      <c r="AX210" s="8"/>
-      <c r="AY210" s="8"/>
-    </row>
-    <row r="211" spans="1:51" ht="14">
-      <c r="A211" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="212" spans="1:51" ht="14">
-      <c r="A212" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H212" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I212" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J212" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K212" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L212" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M212" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O212" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="213" spans="1:51" ht="14">
-      <c r="A213" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B213" s="3"/>
-      <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="4"/>
-      <c r="G213" s="3"/>
-      <c r="H213" s="4"/>
-      <c r="I213" s="3"/>
-      <c r="J213" s="4"/>
-      <c r="K213" s="4"/>
-      <c r="L213" s="4"/>
-      <c r="M213" s="4"/>
-      <c r="N213" s="4"/>
-      <c r="O213" s="6"/>
-    </row>
-    <row r="214" spans="1:51" ht="14">
-      <c r="A214" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B214" s="3"/>
-      <c r="C214" s="4"/>
-      <c r="D214" s="4"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="4"/>
-      <c r="G214" s="3"/>
-      <c r="H214" s="4"/>
-      <c r="I214" s="3"/>
-      <c r="J214" s="4"/>
-      <c r="K214" s="4"/>
-      <c r="L214" s="4"/>
-      <c r="M214" s="4"/>
-      <c r="N214" s="4"/>
-      <c r="O214" s="6"/>
-    </row>
-    <row r="215" spans="1:51" ht="14">
-      <c r="A215" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B215" s="3"/>
-      <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="4"/>
-      <c r="G215" s="3"/>
-      <c r="H215" s="4"/>
-      <c r="I215" s="3"/>
-      <c r="J215" s="4"/>
-      <c r="K215" s="4"/>
-      <c r="L215" s="4"/>
-      <c r="M215" s="4"/>
-      <c r="N215" s="4"/>
-      <c r="O215" s="6"/>
-    </row>
-    <row r="216" spans="1:51" ht="14">
-      <c r="A216" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B216" s="3"/>
-      <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
-      <c r="E216" s="3"/>
-      <c r="F216" s="4"/>
-      <c r="G216" s="3"/>
-      <c r="H216" s="4"/>
-      <c r="I216" s="3"/>
-      <c r="J216" s="4"/>
-      <c r="K216" s="4"/>
-      <c r="L216" s="4"/>
-      <c r="M216" s="4"/>
-      <c r="N216" s="4"/>
-      <c r="O216" s="6"/>
-    </row>
-    <row r="217" spans="1:51" ht="14">
-      <c r="A217" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B217" s="3"/>
-      <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
-      <c r="E217" s="3"/>
-      <c r="F217" s="4"/>
-      <c r="G217" s="3"/>
-      <c r="H217" s="4"/>
-      <c r="I217" s="3"/>
-      <c r="J217" s="4"/>
-      <c r="K217" s="4"/>
-      <c r="L217" s="4"/>
-      <c r="M217" s="4"/>
-      <c r="N217" s="4"/>
-      <c r="O217" s="6"/>
-    </row>
-    <row r="218" spans="1:51" ht="14">
-      <c r="A218" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B218" s="3"/>
-      <c r="C218" s="4"/>
-      <c r="D218" s="4"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="4"/>
-      <c r="G218" s="3"/>
-      <c r="H218" s="4"/>
-      <c r="I218" s="3"/>
-      <c r="J218" s="4"/>
-      <c r="K218" s="4"/>
-      <c r="L218" s="4"/>
-      <c r="M218" s="4"/>
-      <c r="N218" s="4"/>
-      <c r="O218" s="6"/>
-    </row>
-    <row r="219" spans="1:51" ht="14">
-      <c r="A219" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B219" s="3"/>
-      <c r="C219" s="4"/>
-      <c r="D219" s="4"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="4"/>
-      <c r="G219" s="3"/>
-      <c r="H219" s="4"/>
-      <c r="I219" s="3"/>
-      <c r="J219" s="4"/>
-      <c r="K219" s="4"/>
-      <c r="L219" s="4"/>
-      <c r="M219" s="4"/>
-      <c r="N219" s="4"/>
-      <c r="O219" s="6"/>
-    </row>
-    <row r="220" spans="1:51" ht="14">
-      <c r="A220" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B220" s="3"/>
-      <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="4"/>
-      <c r="G220" s="3"/>
-      <c r="H220" s="4"/>
-      <c r="I220" s="3"/>
-      <c r="J220" s="4"/>
-      <c r="K220" s="4"/>
-      <c r="L220" s="4"/>
-      <c r="M220" s="4"/>
-      <c r="N220" s="4"/>
-      <c r="O220" s="6"/>
-    </row>
-    <row r="222" spans="1:51" ht="14">
-      <c r="A222" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="223" spans="1:51" ht="14">
-      <c r="A223" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B223" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="C223" s="8"/>
-      <c r="D223" s="8"/>
-      <c r="E223" s="8"/>
-      <c r="F223" s="8"/>
-      <c r="G223" s="8"/>
-      <c r="H223" s="8"/>
-      <c r="I223" s="8"/>
-      <c r="J223" s="8"/>
-      <c r="K223" s="8"/>
-      <c r="L223" s="8"/>
-      <c r="M223" s="8"/>
-      <c r="N223" s="8"/>
-      <c r="O223" s="8"/>
-      <c r="P223" s="8"/>
-      <c r="Q223" s="8"/>
-      <c r="R223" s="8"/>
-      <c r="S223" s="8"/>
-      <c r="T223" s="8"/>
-      <c r="U223" s="8"/>
-      <c r="V223" s="8"/>
-      <c r="W223" s="8"/>
-      <c r="X223" s="8"/>
-      <c r="Y223" s="8"/>
-      <c r="Z223" s="8"/>
-      <c r="AA223" s="8"/>
-      <c r="AB223" s="8"/>
-      <c r="AC223" s="8"/>
-      <c r="AD223" s="8"/>
-      <c r="AE223" s="8"/>
-      <c r="AF223" s="8"/>
-      <c r="AG223" s="8"/>
-      <c r="AH223" s="8"/>
-      <c r="AI223" s="8"/>
-      <c r="AJ223" s="8"/>
-      <c r="AK223" s="8"/>
-      <c r="AL223" s="8"/>
-      <c r="AM223" s="8"/>
-      <c r="AN223" s="8"/>
-      <c r="AO223" s="8"/>
-      <c r="AP223" s="8"/>
-      <c r="AQ223" s="8"/>
-      <c r="AR223" s="8"/>
-      <c r="AS223" s="8"/>
-      <c r="AT223" s="8"/>
-      <c r="AU223" s="8"/>
-      <c r="AV223" s="8"/>
-      <c r="AW223" s="8"/>
-      <c r="AX223" s="8"/>
-      <c r="AY223" s="8"/>
-    </row>
-    <row r="224" spans="1:51" ht="14">
-      <c r="A224" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="225" spans="1:51" ht="14">
-      <c r="A225" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H225" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I225" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J225" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K225" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L225" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M225" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O225" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="226" spans="1:51" ht="14">
-      <c r="A226" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B226" s="3"/>
-      <c r="C226" s="4"/>
-      <c r="D226" s="4"/>
-      <c r="E226" s="4"/>
-      <c r="F226" s="4"/>
-      <c r="G226" s="4"/>
-      <c r="H226" s="4"/>
-      <c r="I226" s="3"/>
-      <c r="J226" s="4"/>
-      <c r="K226" s="4"/>
-      <c r="L226" s="4"/>
-      <c r="M226" s="4"/>
-      <c r="N226" s="4"/>
-      <c r="O226" s="6"/>
-    </row>
-    <row r="227" spans="1:51" ht="14">
-      <c r="A227" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B227" s="3"/>
-      <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
-      <c r="E227" s="4"/>
-      <c r="F227" s="4"/>
-      <c r="G227" s="4"/>
-      <c r="H227" s="4"/>
-      <c r="I227" s="3"/>
-      <c r="J227" s="4"/>
-      <c r="K227" s="4"/>
-      <c r="L227" s="4"/>
-      <c r="M227" s="4"/>
-      <c r="N227" s="4"/>
-      <c r="O227" s="6"/>
-    </row>
-    <row r="228" spans="1:51" ht="14">
-      <c r="A228" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B228" s="3"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
-      <c r="E228" s="4"/>
-      <c r="F228" s="4"/>
-      <c r="G228" s="4"/>
-      <c r="H228" s="4"/>
-      <c r="I228" s="3"/>
-      <c r="J228" s="4"/>
-      <c r="K228" s="4"/>
-      <c r="L228" s="4"/>
-      <c r="M228" s="4"/>
-      <c r="N228" s="4"/>
-      <c r="O228" s="6"/>
-    </row>
-    <row r="229" spans="1:51" ht="14">
-      <c r="A229" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B229" s="3"/>
-      <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
-      <c r="E229" s="4"/>
-      <c r="F229" s="4"/>
-      <c r="G229" s="4"/>
-      <c r="H229" s="4"/>
-      <c r="I229" s="3"/>
-      <c r="J229" s="4"/>
-      <c r="K229" s="4"/>
-      <c r="L229" s="4"/>
-      <c r="M229" s="4"/>
-      <c r="N229" s="4"/>
-      <c r="O229" s="6"/>
-    </row>
-    <row r="230" spans="1:51" ht="14">
-      <c r="A230" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B230" s="3"/>
-      <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
-      <c r="E230" s="4"/>
-      <c r="F230" s="4"/>
-      <c r="G230" s="4"/>
-      <c r="H230" s="4"/>
-      <c r="I230" s="3"/>
-      <c r="J230" s="4"/>
-      <c r="K230" s="4"/>
-      <c r="L230" s="4"/>
-      <c r="M230" s="4"/>
-      <c r="N230" s="4"/>
-      <c r="O230" s="6"/>
-    </row>
-    <row r="231" spans="1:51" ht="14">
-      <c r="A231" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B231" s="3"/>
-      <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
-      <c r="E231" s="4"/>
-      <c r="F231" s="4"/>
-      <c r="G231" s="4"/>
-      <c r="H231" s="4"/>
-      <c r="I231" s="3"/>
-      <c r="J231" s="4"/>
-      <c r="K231" s="4"/>
-      <c r="L231" s="4"/>
-      <c r="M231" s="4"/>
-      <c r="N231" s="4"/>
-      <c r="O231" s="6"/>
-    </row>
-    <row r="232" spans="1:51" ht="14">
-      <c r="A232" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B232" s="3"/>
-      <c r="C232" s="4"/>
-      <c r="D232" s="4"/>
-      <c r="E232" s="4"/>
-      <c r="F232" s="4"/>
-      <c r="G232" s="4"/>
-      <c r="H232" s="4"/>
-      <c r="I232" s="3"/>
-      <c r="J232" s="4"/>
-      <c r="K232" s="4"/>
-      <c r="L232" s="4"/>
-      <c r="M232" s="4"/>
-      <c r="N232" s="4"/>
-      <c r="O232" s="6"/>
-    </row>
-    <row r="233" spans="1:51" ht="14">
-      <c r="A233" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B233" s="3"/>
-      <c r="C233" s="4"/>
-      <c r="D233" s="4"/>
-      <c r="E233" s="4"/>
-      <c r="F233" s="4"/>
-      <c r="G233" s="4"/>
-      <c r="H233" s="4"/>
-      <c r="I233" s="3"/>
-      <c r="J233" s="4"/>
-      <c r="K233" s="4"/>
-      <c r="L233" s="4"/>
-      <c r="M233" s="4"/>
-      <c r="N233" s="4"/>
-      <c r="O233" s="6"/>
-    </row>
-    <row r="235" spans="1:51" ht="14">
-      <c r="A235" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="236" spans="1:51" ht="14">
-      <c r="A236" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B236" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="C236" s="8"/>
-      <c r="D236" s="8"/>
-      <c r="E236" s="8"/>
-      <c r="F236" s="8"/>
-      <c r="G236" s="8"/>
-      <c r="H236" s="8"/>
-      <c r="I236" s="8"/>
-      <c r="J236" s="8"/>
-      <c r="K236" s="8"/>
-      <c r="L236" s="8"/>
-      <c r="M236" s="8"/>
-      <c r="N236" s="8"/>
-      <c r="O236" s="8"/>
-      <c r="P236" s="8"/>
-      <c r="Q236" s="8"/>
-      <c r="R236" s="8"/>
-      <c r="S236" s="8"/>
-      <c r="T236" s="8"/>
-      <c r="U236" s="8"/>
-      <c r="V236" s="8"/>
-      <c r="W236" s="8"/>
-      <c r="X236" s="8"/>
-      <c r="Y236" s="8"/>
-      <c r="Z236" s="8"/>
-      <c r="AA236" s="8"/>
-      <c r="AB236" s="8"/>
-      <c r="AC236" s="8"/>
-      <c r="AD236" s="8"/>
-      <c r="AE236" s="8"/>
-      <c r="AF236" s="8"/>
-      <c r="AG236" s="8"/>
-      <c r="AH236" s="8"/>
-      <c r="AI236" s="8"/>
-      <c r="AJ236" s="8"/>
-      <c r="AK236" s="8"/>
-      <c r="AL236" s="8"/>
-      <c r="AM236" s="8"/>
-      <c r="AN236" s="8"/>
-      <c r="AO236" s="8"/>
-      <c r="AP236" s="8"/>
-      <c r="AQ236" s="8"/>
-      <c r="AR236" s="8"/>
-      <c r="AS236" s="8"/>
-      <c r="AT236" s="8"/>
-      <c r="AU236" s="8"/>
-      <c r="AV236" s="8"/>
-      <c r="AW236" s="8"/>
-      <c r="AX236" s="8"/>
-      <c r="AY236" s="8"/>
-    </row>
-    <row r="237" spans="1:51" ht="14">
-      <c r="A237" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="238" spans="1:51" ht="14">
-      <c r="A238" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H238" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I238" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J238" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K238" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L238" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M238" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N238" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O238" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="239" spans="1:51" ht="14">
-      <c r="A239" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B239" s="3"/>
-      <c r="C239" s="4"/>
-      <c r="D239" s="4"/>
-      <c r="E239" s="4"/>
-      <c r="F239" s="4"/>
-      <c r="G239" s="4"/>
-      <c r="H239" s="4"/>
-      <c r="I239" s="3"/>
-      <c r="J239" s="4"/>
-      <c r="K239" s="4"/>
-      <c r="L239" s="4"/>
-      <c r="M239" s="4"/>
-      <c r="N239" s="4"/>
-      <c r="O239" s="6"/>
-    </row>
-    <row r="240" spans="1:51" ht="14">
-      <c r="A240" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B240" s="3"/>
-      <c r="C240" s="4"/>
-      <c r="D240" s="4"/>
-      <c r="E240" s="4"/>
-      <c r="F240" s="4"/>
-      <c r="G240" s="4"/>
-      <c r="H240" s="4"/>
-      <c r="I240" s="3"/>
-      <c r="J240" s="4"/>
-      <c r="K240" s="4"/>
-      <c r="L240" s="4"/>
-      <c r="M240" s="4"/>
-      <c r="N240" s="4"/>
-      <c r="O240" s="6"/>
-    </row>
-    <row r="241" spans="1:51" ht="14">
-      <c r="A241" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B241" s="3"/>
-      <c r="C241" s="4"/>
-      <c r="D241" s="4"/>
-      <c r="E241" s="4"/>
-      <c r="F241" s="4"/>
-      <c r="G241" s="4"/>
-      <c r="H241" s="4"/>
-      <c r="I241" s="3"/>
-      <c r="J241" s="4"/>
-      <c r="K241" s="4"/>
-      <c r="L241" s="4"/>
-      <c r="M241" s="4"/>
-      <c r="N241" s="4"/>
-      <c r="O241" s="6"/>
-    </row>
-    <row r="242" spans="1:51" ht="14">
-      <c r="A242" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B242" s="3"/>
-      <c r="C242" s="4"/>
-      <c r="D242" s="4"/>
-      <c r="E242" s="4"/>
-      <c r="F242" s="4"/>
-      <c r="G242" s="4"/>
-      <c r="H242" s="4"/>
-      <c r="I242" s="3"/>
-      <c r="J242" s="4"/>
-      <c r="K242" s="4"/>
-      <c r="L242" s="4"/>
-      <c r="M242" s="4"/>
-      <c r="N242" s="4"/>
-      <c r="O242" s="6"/>
-    </row>
-    <row r="243" spans="1:51" ht="14">
-      <c r="A243" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B243" s="3"/>
-      <c r="C243" s="4"/>
-      <c r="D243" s="4"/>
-      <c r="E243" s="4"/>
-      <c r="F243" s="4"/>
-      <c r="G243" s="4"/>
-      <c r="H243" s="4"/>
-      <c r="I243" s="3"/>
-      <c r="J243" s="4"/>
-      <c r="K243" s="4"/>
-      <c r="L243" s="4"/>
-      <c r="M243" s="4"/>
-      <c r="N243" s="4"/>
-      <c r="O243" s="6"/>
-    </row>
-    <row r="244" spans="1:51" ht="14">
-      <c r="A244" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B244" s="3"/>
-      <c r="C244" s="4"/>
-      <c r="D244" s="4"/>
-      <c r="E244" s="4"/>
-      <c r="F244" s="4"/>
-      <c r="G244" s="4"/>
-      <c r="H244" s="4"/>
-      <c r="I244" s="3"/>
-      <c r="J244" s="4"/>
-      <c r="K244" s="4"/>
-      <c r="L244" s="4"/>
-      <c r="M244" s="4"/>
-      <c r="N244" s="4"/>
-      <c r="O244" s="6"/>
-    </row>
-    <row r="245" spans="1:51" ht="14">
-      <c r="A245" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B245" s="3"/>
-      <c r="C245" s="4"/>
-      <c r="D245" s="4"/>
-      <c r="E245" s="4"/>
-      <c r="F245" s="4"/>
-      <c r="G245" s="4"/>
-      <c r="H245" s="4"/>
-      <c r="I245" s="3"/>
-      <c r="J245" s="4"/>
-      <c r="K245" s="4"/>
-      <c r="L245" s="4"/>
-      <c r="M245" s="4"/>
-      <c r="N245" s="4"/>
-      <c r="O245" s="6"/>
-    </row>
-    <row r="246" spans="1:51" ht="14">
-      <c r="A246" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B246" s="3"/>
-      <c r="C246" s="4"/>
-      <c r="D246" s="4"/>
-      <c r="E246" s="4"/>
-      <c r="F246" s="4"/>
-      <c r="G246" s="4"/>
-      <c r="H246" s="4"/>
-      <c r="I246" s="3"/>
-      <c r="J246" s="4"/>
-      <c r="K246" s="4"/>
-      <c r="L246" s="4"/>
-      <c r="M246" s="4"/>
-      <c r="N246" s="4"/>
-      <c r="O246" s="6"/>
-    </row>
-    <row r="248" spans="1:51" ht="14">
-      <c r="A248" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="249" spans="1:51" ht="14">
-      <c r="A249" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B249" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="C249" s="8"/>
-      <c r="D249" s="8"/>
-      <c r="E249" s="8"/>
-      <c r="F249" s="8"/>
-      <c r="G249" s="8"/>
-      <c r="H249" s="8"/>
-      <c r="I249" s="8"/>
-      <c r="J249" s="8"/>
-      <c r="K249" s="8"/>
-      <c r="L249" s="8"/>
-      <c r="M249" s="8"/>
-      <c r="N249" s="8"/>
-      <c r="O249" s="8"/>
-      <c r="P249" s="8"/>
-      <c r="Q249" s="8"/>
-      <c r="R249" s="8"/>
-      <c r="S249" s="8"/>
-      <c r="T249" s="8"/>
-      <c r="U249" s="8"/>
-      <c r="V249" s="8"/>
-      <c r="W249" s="8"/>
-      <c r="X249" s="8"/>
-      <c r="Y249" s="8"/>
-      <c r="Z249" s="8"/>
-      <c r="AA249" s="8"/>
-      <c r="AB249" s="8"/>
-      <c r="AC249" s="8"/>
-      <c r="AD249" s="8"/>
-      <c r="AE249" s="8"/>
-      <c r="AF249" s="8"/>
-      <c r="AG249" s="8"/>
-      <c r="AH249" s="8"/>
-      <c r="AI249" s="8"/>
-      <c r="AJ249" s="8"/>
-      <c r="AK249" s="8"/>
-      <c r="AL249" s="8"/>
-      <c r="AM249" s="8"/>
-      <c r="AN249" s="8"/>
-      <c r="AO249" s="8"/>
-      <c r="AP249" s="8"/>
-      <c r="AQ249" s="8"/>
-      <c r="AR249" s="8"/>
-      <c r="AS249" s="8"/>
-      <c r="AT249" s="8"/>
-      <c r="AU249" s="8"/>
-      <c r="AV249" s="8"/>
-      <c r="AW249" s="8"/>
-      <c r="AX249" s="8"/>
-      <c r="AY249" s="8"/>
-    </row>
-    <row r="250" spans="1:51" ht="14">
-      <c r="A250" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="251" spans="1:51" ht="14">
-      <c r="A251" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F251" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G251" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H251" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I251" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J251" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K251" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L251" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M251" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N251" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O251" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="252" spans="1:51" ht="14">
-      <c r="A252" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B252" s="3"/>
-      <c r="C252" s="4"/>
-      <c r="D252" s="4"/>
-      <c r="E252" s="4"/>
-      <c r="F252" s="4"/>
-      <c r="G252" s="4"/>
-      <c r="H252" s="4"/>
-      <c r="I252" s="3"/>
-      <c r="J252" s="4"/>
-      <c r="K252" s="4"/>
-      <c r="L252" s="4"/>
-      <c r="M252" s="4"/>
-      <c r="N252" s="4"/>
-      <c r="O252" s="6"/>
-    </row>
-    <row r="253" spans="1:51" ht="14">
-      <c r="A253" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B253" s="3"/>
-      <c r="C253" s="4"/>
-      <c r="D253" s="4"/>
-      <c r="E253" s="4"/>
-      <c r="F253" s="4"/>
-      <c r="G253" s="4"/>
-      <c r="H253" s="4"/>
-      <c r="I253" s="3"/>
-      <c r="J253" s="4"/>
-      <c r="K253" s="4"/>
-      <c r="L253" s="4"/>
-      <c r="M253" s="4"/>
-      <c r="N253" s="4"/>
-      <c r="O253" s="6"/>
-    </row>
-    <row r="254" spans="1:51" ht="14">
-      <c r="A254" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B254" s="3"/>
-      <c r="C254" s="4"/>
-      <c r="D254" s="4"/>
-      <c r="E254" s="4"/>
-      <c r="F254" s="4"/>
-      <c r="G254" s="4"/>
-      <c r="H254" s="4"/>
-      <c r="I254" s="3"/>
-      <c r="J254" s="4"/>
-      <c r="K254" s="4"/>
-      <c r="L254" s="4"/>
-      <c r="M254" s="4"/>
-      <c r="N254" s="4"/>
-      <c r="O254" s="6"/>
-    </row>
-    <row r="255" spans="1:51" ht="14">
-      <c r="A255" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B255" s="3"/>
-      <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
-      <c r="E255" s="4"/>
-      <c r="F255" s="4"/>
-      <c r="G255" s="4"/>
-      <c r="H255" s="4"/>
-      <c r="I255" s="3"/>
-      <c r="J255" s="4"/>
-      <c r="K255" s="4"/>
-      <c r="L255" s="4"/>
-      <c r="M255" s="4"/>
-      <c r="N255" s="4"/>
-      <c r="O255" s="6"/>
-    </row>
-    <row r="256" spans="1:51" ht="14">
-      <c r="A256" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B256" s="3"/>
-      <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
-      <c r="E256" s="4"/>
-      <c r="F256" s="4"/>
-      <c r="G256" s="4"/>
-      <c r="H256" s="4"/>
-      <c r="I256" s="3"/>
-      <c r="J256" s="4"/>
-      <c r="K256" s="4"/>
-      <c r="L256" s="4"/>
-      <c r="M256" s="4"/>
-      <c r="N256" s="4"/>
-      <c r="O256" s="6"/>
-    </row>
-    <row r="257" spans="1:51" ht="14">
-      <c r="A257" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B257" s="3"/>
-      <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
-      <c r="E257" s="4"/>
-      <c r="F257" s="4"/>
-      <c r="G257" s="4"/>
-      <c r="H257" s="4"/>
-      <c r="I257" s="3"/>
-      <c r="J257" s="4"/>
-      <c r="K257" s="4"/>
-      <c r="L257" s="4"/>
-      <c r="M257" s="4"/>
-      <c r="N257" s="4"/>
-      <c r="O257" s="6"/>
-    </row>
-    <row r="258" spans="1:51" ht="14">
-      <c r="A258" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B258" s="3"/>
-      <c r="C258" s="4"/>
-      <c r="D258" s="4"/>
-      <c r="E258" s="4"/>
-      <c r="F258" s="4"/>
-      <c r="G258" s="4"/>
-      <c r="H258" s="4"/>
-      <c r="I258" s="3"/>
-      <c r="J258" s="4"/>
-      <c r="K258" s="4"/>
-      <c r="L258" s="4"/>
-      <c r="M258" s="4"/>
-      <c r="N258" s="4"/>
-      <c r="O258" s="6"/>
-    </row>
-    <row r="259" spans="1:51" ht="14">
-      <c r="A259" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B259" s="3"/>
-      <c r="C259" s="4"/>
-      <c r="D259" s="4"/>
-      <c r="E259" s="4"/>
-      <c r="F259" s="4"/>
-      <c r="G259" s="4"/>
-      <c r="H259" s="4"/>
-      <c r="I259" s="3"/>
-      <c r="J259" s="4"/>
-      <c r="K259" s="4"/>
-      <c r="L259" s="4"/>
-      <c r="M259" s="4"/>
-      <c r="N259" s="4"/>
-      <c r="O259" s="6"/>
-    </row>
-    <row r="261" spans="1:51" ht="14">
-      <c r="A261" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="262" spans="1:51" ht="14">
-      <c r="A262" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="B262" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="C262" s="8"/>
-      <c r="D262" s="8"/>
-      <c r="E262" s="8"/>
-      <c r="F262" s="8"/>
-      <c r="G262" s="8"/>
-      <c r="H262" s="8"/>
-      <c r="I262" s="8"/>
-      <c r="J262" s="8"/>
-      <c r="K262" s="8"/>
-      <c r="L262" s="8"/>
-      <c r="M262" s="8"/>
-      <c r="N262" s="8"/>
-      <c r="O262" s="8"/>
-      <c r="P262" s="8"/>
-      <c r="Q262" s="8"/>
-      <c r="R262" s="8"/>
-      <c r="S262" s="8"/>
-      <c r="T262" s="8"/>
-      <c r="U262" s="8"/>
-      <c r="V262" s="8"/>
-      <c r="W262" s="8"/>
-      <c r="X262" s="8"/>
-      <c r="Y262" s="8"/>
-      <c r="Z262" s="8"/>
-      <c r="AA262" s="8"/>
-      <c r="AB262" s="8"/>
-      <c r="AC262" s="8"/>
-      <c r="AD262" s="8"/>
-      <c r="AE262" s="8"/>
-      <c r="AF262" s="8"/>
-      <c r="AG262" s="8"/>
-      <c r="AH262" s="8"/>
-      <c r="AI262" s="8"/>
-      <c r="AJ262" s="8"/>
-      <c r="AK262" s="8"/>
-      <c r="AL262" s="8"/>
-      <c r="AM262" s="8"/>
-      <c r="AN262" s="8"/>
-      <c r="AO262" s="8"/>
-      <c r="AP262" s="8"/>
-      <c r="AQ262" s="8"/>
-      <c r="AR262" s="8"/>
-      <c r="AS262" s="8"/>
-      <c r="AT262" s="8"/>
-      <c r="AU262" s="8"/>
-      <c r="AV262" s="8"/>
-      <c r="AW262" s="8"/>
-      <c r="AX262" s="8"/>
-      <c r="AY262" s="8"/>
-    </row>
-    <row r="263" spans="1:51" ht="14">
-      <c r="A263" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="264" spans="1:51" ht="14">
-      <c r="A264" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F264" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G264" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H264" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I264" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J264" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K264" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L264" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M264" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N264" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O264" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="265" spans="1:51" ht="14">
-      <c r="A265" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C265" s="4"/>
-      <c r="D265" s="4"/>
-      <c r="E265" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F265" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G265" s="4"/>
-      <c r="H265" s="4"/>
-      <c r="I265" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J265" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="K265" s="4"/>
-      <c r="L265" s="4"/>
-      <c r="M265" s="4"/>
-      <c r="N265" s="4"/>
-      <c r="O265" s="6"/>
-    </row>
-    <row r="266" spans="1:51" ht="14">
-      <c r="A266" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D266" s="4"/>
-      <c r="E266" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F266" s="4"/>
-      <c r="G266" s="4"/>
-      <c r="H266" s="4"/>
-      <c r="I266" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J266" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="K266" s="4"/>
-      <c r="L266" s="4"/>
-      <c r="M266" s="4"/>
-      <c r="N266" s="4"/>
-      <c r="O266" s="6"/>
-    </row>
-    <row r="267" spans="1:51" ht="14">
-      <c r="A267" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D267" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E267" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F267" s="4"/>
-      <c r="G267" s="4"/>
-      <c r="H267" s="4"/>
-      <c r="I267" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J267" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="K267" s="4"/>
-      <c r="L267" s="4"/>
-      <c r="M267" s="4"/>
-      <c r="N267" s="4"/>
-      <c r="O267" s="6"/>
-    </row>
-    <row r="268" spans="1:51" ht="14">
-      <c r="A268" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B268" s="3"/>
-      <c r="C268" s="4"/>
-      <c r="D268" s="4"/>
-      <c r="E268" s="3"/>
-      <c r="F268" s="4"/>
-      <c r="G268" s="4"/>
-      <c r="H268" s="4"/>
-      <c r="I268" s="3"/>
-      <c r="J268" s="4"/>
-      <c r="K268" s="4"/>
-      <c r="L268" s="4"/>
-      <c r="M268" s="4"/>
-      <c r="N268" s="4"/>
-      <c r="O268" s="6"/>
-    </row>
-    <row r="269" spans="1:51" ht="14">
-      <c r="A269" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B269" s="3"/>
-      <c r="C269" s="4"/>
-      <c r="D269" s="4"/>
-      <c r="E269" s="3"/>
-      <c r="F269" s="4"/>
-      <c r="G269" s="4"/>
-      <c r="H269" s="4"/>
-      <c r="I269" s="3"/>
-      <c r="J269" s="4"/>
-      <c r="K269" s="4"/>
-      <c r="L269" s="4"/>
-      <c r="M269" s="4"/>
-      <c r="N269" s="4"/>
-      <c r="O269" s="6"/>
-    </row>
-    <row r="270" spans="1:51" ht="14">
-      <c r="A270" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B270" s="3"/>
-      <c r="C270" s="4"/>
-      <c r="D270" s="4"/>
-      <c r="E270" s="3"/>
-      <c r="F270" s="4"/>
-      <c r="G270" s="4"/>
-      <c r="H270" s="4"/>
-      <c r="I270" s="3"/>
-      <c r="J270" s="4"/>
-      <c r="K270" s="4"/>
-      <c r="L270" s="4"/>
-      <c r="M270" s="4"/>
-      <c r="N270" s="4"/>
-      <c r="O270" s="6"/>
-    </row>
-    <row r="271" spans="1:51" ht="14">
-      <c r="A271" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B271" s="3"/>
-      <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
-      <c r="E271" s="3"/>
-      <c r="F271" s="4"/>
-      <c r="G271" s="4"/>
-      <c r="H271" s="4"/>
-      <c r="I271" s="3"/>
-      <c r="J271" s="4"/>
-      <c r="K271" s="4"/>
-      <c r="L271" s="4"/>
-      <c r="M271" s="4"/>
-      <c r="N271" s="4"/>
-      <c r="O271" s="6"/>
-    </row>
-    <row r="272" spans="1:51" ht="14">
-      <c r="A272" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B272" s="3"/>
-      <c r="C272" s="4"/>
-      <c r="D272" s="4"/>
-      <c r="E272" s="3"/>
-      <c r="F272" s="4"/>
-      <c r="G272" s="4"/>
-      <c r="H272" s="4"/>
-      <c r="I272" s="3"/>
-      <c r="J272" s="4"/>
-      <c r="K272" s="4"/>
-      <c r="L272" s="4"/>
-      <c r="M272" s="4"/>
-      <c r="N272" s="4"/>
-      <c r="O272" s="6"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="21">
-    <mergeCell ref="B145:AY145"/>
-    <mergeCell ref="B2:AY2"/>
-    <mergeCell ref="B15:AY15"/>
-    <mergeCell ref="B28:AY28"/>
-    <mergeCell ref="B41:AY41"/>
-    <mergeCell ref="B54:AY54"/>
-    <mergeCell ref="B67:AY67"/>
-    <mergeCell ref="B80:AY80"/>
-    <mergeCell ref="B93:AY93"/>
-    <mergeCell ref="B106:AY106"/>
-    <mergeCell ref="B119:AY119"/>
-    <mergeCell ref="B132:AY132"/>
-    <mergeCell ref="B236:AY236"/>
-    <mergeCell ref="B249:AY249"/>
-    <mergeCell ref="B262:AY262"/>
-    <mergeCell ref="B158:AY158"/>
-    <mergeCell ref="B171:AY171"/>
-    <mergeCell ref="B184:AY184"/>
-    <mergeCell ref="B197:AY197"/>
-    <mergeCell ref="B210:AY210"/>
-    <mergeCell ref="B223:AY223"/>
-  </mergeCells>
-  <dataValidations count="73">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="J5 J18 J31 J44 J57 J70 J83 J96 J109 J122 J135 J148 J161 J174 J187 J200 J213 J226 J239 J252 J265">
-      <formula1>FIND(LOWER(TRIM(J5)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="K5 K18 K31 K44 K57 K70 K83 K96 K109 K122 K135 K148 K161 K174 K187 K200 K213 K226 K239 K252 K265">
-      <formula1>FIND(LOWER(TRIM(K5)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="L5 L18 L31 L44 L57 L70 L83 L96 L109 L122 L135 L148 L161 L174 L187 L200 L213 L226 L239 L252 L265">
-      <formula1>FIND(LOWER(TRIM(L5)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="M5 M18 M31 M44 M57 M70 M83 M96 M109 M122 M135 M148 M161 M174 M187 M200 M213 M226 M239 M252 M265">
-      <formula1>FIND(LOWER(TRIM(M5)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="N5 N18 N31 N44 N57 N70 N83 N96 N109 N122 N135 N148 N161 N174 N187 N200 N213 N226 N239 N252 N265">
-      <formula1>FIND(LOWER(TRIM(N5)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="J6 J19 J32 J45 J58 J71 J84 J97 J110 J123 J136 J149 J162 J175 J188 J201 J214 J227 J240 J253 J266">
-      <formula1>FIND(LOWER(TRIM(J6)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="K6 K19 K32 K45 K58 K71 K84 K97 K110 K123 K136 K149 K162 K175 K188 K201 K214 K227 K240 K253 K266">
-      <formula1>FIND(LOWER(TRIM(K6)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="L6 L19 L32 L45 L58 L71 L84 L97 L110 L123 L136 L149 L162 L175 L188 L201 L214 L227 L240 L253 L266">
-      <formula1>FIND(LOWER(TRIM(L6)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="M6 M19 M32 M45 M58 M71 M84 M97 M110 M123 M136 M149 M162 M175 M188 M201 M214 M227 M240 M253 M266">
-      <formula1>FIND(LOWER(TRIM(M6)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="N6 N19 N32 N45 N58 N71 N84 N97 N110 N123 N136 N149 N162 N175 N188 N201 N214 N227 N240 N253 N266">
-      <formula1>FIND(LOWER(TRIM(N6)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="J7 J20 J33 J46 J59 J72 J85 J98 J111 J124 J137 J150 J163 J176 J189 J202 J215 J228 J241 J254 J267">
-      <formula1>FIND(LOWER(TRIM(J7)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="K7 K20 K33 K46 K59 K72 K85 K98 K111 K124 K137 K150 K163 K176 K189 K202 K215 K228 K241 K254 K267">
-      <formula1>FIND(LOWER(TRIM(K7)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="L7 L20 L33 L46 L59 L72 L85 L98 L111 L124 L137 L150 L163 L176 L189 L202 L215 L228 L241 L254 L267">
-      <formula1>FIND(LOWER(TRIM(L7)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="M7 M20 M33 M46 M59 M72 M85 M98 M111 M124 M137 M150 M163 M176 M189 M202 M215 M228 M241 M254 M267">
-      <formula1>FIND(LOWER(TRIM(M7)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="N7 N20 N33 N46 N59 N72 N85 N98 N111 N124 N137 N150 N163 N176 N189 N202 N215 N228 N241 N254 N267">
-      <formula1>FIND(LOWER(TRIM(N7)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="J8 J21 J34 J47 J60 J73 J86 J99 J112 J125 J138 J151 J164 J177 J190 J203 J216 J229 J242 J255 J268">
-      <formula1>FIND(LOWER(TRIM(J8)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="K8 K21 K34 K47 K60 K73 K86 K99 K112 K125 K138 K151 K164 K177 K190 K203 K216 K229 K242 K255 K268">
-      <formula1>FIND(LOWER(TRIM(K8)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="L8 L21 L34 L47 L60 L73 L86 L99 L112 L125 L138 L151 L164 L177 L190 L203 L216 L229 L242 L255 L268">
-      <formula1>FIND(LOWER(TRIM(L8)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="M8 M21 M34 M47 M60 M73 M86 M99 M112 M125 M138 M151 M164 M177 M190 M203 M216 M229 M242 M255 M268">
-      <formula1>FIND(LOWER(TRIM(M8)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="N8 N21 N34 N47 N60 N73 N86 N99 N112 N125 N138 N151 N164 N177 N190 N203 N216 N229 N242 N255 N268">
-      <formula1>FIND(LOWER(TRIM(N8)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="J9 J22 J35 J48 J61 J74 J87 J100 J113 J126 J139 J152 J165 J178 J191 J204 J217 J230 J243 J256 J269">
-      <formula1>FIND(LOWER(TRIM(J9)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="K9 K22 K35 K48 K61 K74 K87 K100 K113 K126 K139 K152 K165 K178 K191 K204 K217 K230 K243 K256 K269">
-      <formula1>FIND(LOWER(TRIM(K9)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="L9 L22 L35 L48 L61 L74 L87 L100 L113 L126 L139 L152 L165 L178 L191 L204 L217 L230 L243 L256 L269">
-      <formula1>FIND(LOWER(TRIM(L9)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="M9 M22 M35 M48 M61 M74 M87 M100 M113 M126 M139 M152 M165 M178 M191 M204 M217 M230 M243 M256 M269">
-      <formula1>FIND(LOWER(TRIM(M9)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="N9 N22 N35 N48 N61 N74 N87 N100 N113 N126 N139 N152 N165 N178 N191 N204 N217 N230 N243 N256 N269">
-      <formula1>FIND(LOWER(TRIM(N9)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="J10 J23 J36 J49 J62 J75 J88 J101 J114 J127 J140 J153 J166 J179 J192 J205 J218 J231 J244 J257 J270">
-      <formula1>FIND(LOWER(TRIM(J10)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="K10 K23 K36 K49 K62 K75 K88 K101 K114 K127 K140 K153 K166 K179 K192 K205 K218 K231 K244 K257 K270">
-      <formula1>FIND(LOWER(TRIM(K10)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="L10 L23 L36 L49 L62 L75 L88 L101 L114 L127 L140 L153 L166 L179 L192 L205 L218 L231 L244 L257 L270">
-      <formula1>FIND(LOWER(TRIM(L10)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="M10 M23 M36 M49 M62 M75 M88 M101 M114 M127 M140 M153 M166 M179 M192 M205 M218 M231 M244 M257 M270">
-      <formula1>FIND(LOWER(TRIM(M10)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="N10 N23 N36 N49 N62 N75 N88 N101 N114 N127 N140 N153 N166 N179 N192 N205 N218 N231 N244 N257 N270">
-      <formula1>FIND(LOWER(TRIM(N10)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="J11 J24 J37 J50 J63 J76 J89 J102 J115 J128 J141 J154 J167 J180 J193 J206 J219 J232 J245 J258 J271">
-      <formula1>FIND(LOWER(TRIM(J11)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="K11 K24 K37 K50 K63 K76 K89 K102 K115 K128 K141 K154 K167 K180 K193 K206 K219 K232 K245 K258 K271">
-      <formula1>FIND(LOWER(TRIM(K11)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="L11 L24 L37 L50 L63 L76 L89 L102 L115 L128 L141 L154 L167 L180 L193 L206 L219 L232 L245 L258 L271">
-      <formula1>FIND(LOWER(TRIM(L11)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="M11 M24 M37 M50 M63 M76 M89 M102 M115 M128 M141 M154 M167 M180 M193 M206 M219 M232 M245 M258 M271">
-      <formula1>FIND(LOWER(TRIM(M11)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="N11 N24 N37 N50 N63 N76 N89 N102 N115 N128 N141 N154 N167 N180 N193 N206 N219 N232 N245 N258 N271">
-      <formula1>FIND(LOWER(TRIM(N11)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="J12 J25 J38 J51 J64 J77 J90 J103 J116 J129 J142 J155 J168 J181 J194 J207 J220 J233 J246 J259 J272">
-      <formula1>FIND(LOWER(TRIM(J12)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="K12 K25 K38 K51 K64 K77 K90 K103 K116 K129 K142 K155 K168 K181 K194 K207 K220 K233 K246 K259 K272">
-      <formula1>FIND(LOWER(TRIM(K12)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="L12 L25 L38 L51 L64 L77 L90 L103 L116 L129 L142 L155 L168 L181 L194 L207 L220 L233 L246 L259 L272">
-      <formula1>FIND(LOWER(TRIM(L12)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="M12 M25 M38 M51 M64 M77 M90 M103 M116 M129 M142 M155 M168 M181 M194 M207 M220 M233 M246 M259 M272">
-      <formula1>FIND(LOWER(TRIM(M12)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only use words in the sentence for answer" sqref="N12 N25 N38 N51 N64 N77 N90 N103 N116 N129 N142 N155 N168 N181 N194 N207 N220 N233 N246 N259 N272">
-      <formula1>FIND(LOWER(TRIM(N12)), B2)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="E174:E181 E213:E220">
-      <formula1>"be said,been said,have been said,have said,said,say,says"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="G265:G272">
-      <formula1>",about,by,for,in,of,to,with"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="G57:G64 G70:G77">
-      <formula1>",about,by,for,to,with"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="E265:E272">
-      <formula1>"be had,been had,had,has,have,have been had,have had"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="G5:G12 G122:G129 G135:G142">
-      <formula1>",about,by,for,in,to,with"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="B5:B12 B18:B25 B31:B38 B44:B51 B57:B64 B70:B77 B83:B90 B96:B103 B109:B116 B122:B129 B135:B142 B148:B155 B161:B168 B174:B181 B187:B194 B200:B207 B213:B220 B226:B233 B239:B246 B252:B259 B265:B272">
-      <formula1>"Who,What,When,Where,How,How much,Why"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="C5:C12 C18:C25 C31:C38 C44:C51 C57:C64 C70:C77 C83:C90 C96:C103 C109:C116 C122:C129 C135:C142 C148:C155 C161:C168 C174:C181 C187:C194 C200:C207 C213:C220 C226:C233 C239:C246 C252:C259 C265:C272">
-      <formula1>"is,are,was,were,does,do,did,has,have,had,can,could,may,might,will,would,should,must,is n't,are n't,was n't,were n't,does n't,do n't,did n't,has n't,have n't,had n't,ca n't,could n't,may not,might not,wo n't,would n't,should n't,must n't"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="D5:D12 F5:F12 D18:D25 F18:F25 D31:D38 F31:F38 D44:D51 F44:F51 D57:D64 F57:F64 D70:D77 F70:F77 D83:D90 F83:F90 D96:D103 F96:F103 D109:D116 F109:F116 D122:D129 F122:F129 D135:D142 F135:F142 D148:D155 F148:F155 D161:D168 F161:F168 D174:D181 F174:F181 D187:D194 F187:F194 D200:D207 F200:F207 D213:D220 F213:F220 D226:D233 F226:F233 D239:D246 F239:F246 D252:D259 F252:F259 D265:D272 F265:F272">
-      <formula1>"someone,something"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="H5:H12 H18:H25 H31:H38 H44:H51 H57:H64 H70:H77 H83:H90 H96:H103 H109:H116 H122:H129 H135:H142 H148:H155 H161:H168 H174:H181 H187:H194 H200:H207 H213:H220 H226:H233 H239:H246 H252:H259 H265:H272">
-      <formula1>"someone,something,do something,do,doing,somewhere"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="E187:E194">
-      <formula1>"be seen,been seen,have been seen,have seen,saw,see,seen,sees"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="G187:G194 G200:G207 G213:G220">
-      <formula1>",about,by,for,of,to,with"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="E135:E142">
-      <formula1>"be begun,been begun,began,begin,begins,begun,have been begun,have begun"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="G148:G155">
-      <formula1>",about,by,for,on,to,with"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="E18:E25">
-      <formula1>"be created,been created,create,created,creates,have been created,have created"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="E122:E129">
-      <formula1>"be expected,been expected,expect,expected,expects,have been expected,have expected"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="E5:E12">
-      <formula1>"be reported,been reported,have been reported,have reported,report,reported,reports"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="G18:G25 G31:G38 G44:G51">
-      <formula1>",about,by,for,in,of,out,to,with"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="E31:E38">
-      <formula1>"be spelled,be spelling,been spelled,been spelling,being spelled,have been spelled,have been spelling,have spelled,spell,spelled,spelling,spells"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="E44:E51">
-      <formula1>"be protected,been protected,have been protected,have protected,protect,protected,protects"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="E57:E64">
-      <formula1>"be specialized,been specialized,have been specialized,have specialized,specialize,specialized,specializes"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="E70:E77">
-      <formula1>"be limited,been limited,have been limited,have limited,limit,limited,limits"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="E83:E90">
-      <formula1>"be pulled,been pulled,have been pulled,have pulled,pull,pulled,pulls"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="G83:G90 G96:G103 G109:G116">
-      <formula1>",about,by,for,in,off,to,with"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="E96:E103">
-      <formula1>"be gotten,been gotten,get,gets,got,gotten,have been gotten,have gotten"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="E109:E116">
-      <formula1>"be produced,been produced,have been produced,have produced,produce,produced,produces"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="E148:E155">
-      <formula1>"be grown,been grown,grew,grow,grown,grows,have been grown,have grown"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="E161:E168">
-      <formula1>"be performed,be performing,been performed,been performing,being performed,have been performed,have been performing,have performed,perform,performed,performing,performs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="G161:G168 G174:G181">
-      <formula1>",about,at,by,for,in,to,with"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="E200:E207">
-      <formula1>"be fitted,been fitted,fit,fits,fitted,have been fitted,have fitted"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="E226:E233">
-      <formula1>"be risen,been risen,have been risen,have risen,rise,risen,rises,rose"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="G226:G233 G239:G246 G252:G259">
-      <formula1>",about,by,for,in,of,to,with,without"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="E239:E246">
-      <formula1>"be slowed,be slowing,been slowed,been slowing,being slowed,have been slowed,have been slowing,have slowed,slow,slowed,slowing,slows"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input value" error="See dropdown box for valid options." sqref="E252:E259">
-      <formula1>"be loomed,been loomed,have been loomed,have loomed,loom,loomed,looms"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>